--- a/res/source/cfg_building_new.xlsx
+++ b/res/source/cfg_building_new.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-6510" yWindow="495" windowWidth="21390" windowHeight="8865"/>
@@ -15,318 +15,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data_Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ClientDefine</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-ServerDefine
-DBDefine</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ClientData</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ServerData</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DBData</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>DataKey</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>供需的人口类型：</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 平民
-2 骑士
-3 贵族</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-移民的起始建筑
-逃荒的终点建筑</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="I9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>供需的人口类型：</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 平民
-2 骑士
-3 贵族</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-移民的起始建筑
-逃荒的终点建筑</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>供需的人口类型：</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-1 平民
-2 骑士
-3 贵族</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-移民的起始建筑
-逃荒的终点建筑</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="276">
   <si>
     <t>建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1037,23 +732,23 @@
   </si>
   <si>
     <t>错误</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>error</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>abc</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>uint16</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>"远方"</t>
@@ -1369,14 +1064,26 @@
   </si>
   <si>
     <t>CfgBuildingNew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1417,15 +1124,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1441,25 +1139,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1574,140 +1253,140 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1725,7 +1404,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1817,7 +1496,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1849,10 +1528,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1884,7 +1562,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2060,17 +1737,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="X25" sqref="X25"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="8" bestFit="1" customWidth="1"/>
@@ -2090,7 +1767,7 @@
     <col min="24" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23">
       <c r="A1" s="8" t="s">
         <v>204</v>
       </c>
@@ -2110,7 +1787,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23">
       <c r="A2" s="25" t="s">
         <v>92</v>
       </c>
@@ -2181,7 +1858,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="28" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="28" customFormat="1" ht="66">
       <c r="A3" s="27" t="s">
         <v>91</v>
       </c>
@@ -2249,7 +1926,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23">
       <c r="A4" s="29" t="s">
         <v>160</v>
       </c>
@@ -2257,13 +1934,13 @@
         <v>160</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>160</v>
@@ -2320,7 +1997,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" s="33" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>103</v>
       </c>
@@ -2391,7 +2068,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" s="33" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>99</v>
       </c>
@@ -2462,7 +2139,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" s="33" customFormat="1">
       <c r="A7" s="29">
         <v>99</v>
       </c>
@@ -2533,7 +2210,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="17.25">
       <c r="A8" s="30">
         <v>101</v>
       </c>
@@ -2604,7 +2281,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="17.25">
       <c r="A9" s="30">
         <v>102</v>
       </c>
@@ -2675,7 +2352,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="17.25">
       <c r="A10" s="30">
         <v>103</v>
       </c>
@@ -2746,7 +2423,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="17.25">
       <c r="A11" s="30">
         <v>201</v>
       </c>
@@ -2817,7 +2494,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="17.25">
       <c r="A12" s="30">
         <v>202</v>
       </c>
@@ -2888,7 +2565,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="17.25">
       <c r="A13" s="30">
         <v>203</v>
       </c>
@@ -2959,7 +2636,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="17.25">
       <c r="A14" s="30">
         <v>204</v>
       </c>
@@ -3030,7 +2707,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="17.25">
       <c r="A15" s="30">
         <v>301</v>
       </c>
@@ -3101,7 +2778,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" s="38" customFormat="1" ht="17.25">
       <c r="A16" s="36">
         <v>401</v>
       </c>
@@ -3172,7 +2849,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" s="38" customFormat="1" ht="17.25">
       <c r="A17" s="36">
         <v>402</v>
       </c>
@@ -3243,7 +2920,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" s="38" customFormat="1" ht="17.25">
       <c r="A18" s="36">
         <v>403</v>
       </c>
@@ -3314,7 +2991,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" s="38" customFormat="1" ht="17.25">
       <c r="A19" s="36">
         <v>404</v>
       </c>
@@ -3385,7 +3062,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" s="38" customFormat="1" ht="17.25">
       <c r="A20" s="36">
         <v>405</v>
       </c>
@@ -3460,19 +3137,18 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="8" bestFit="1" customWidth="1"/>
@@ -3489,7 +3165,7 @@
     <col min="13" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>162</v>
       </c>
@@ -3504,7 +3180,7 @@
       <c r="G1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>163</v>
       </c>
@@ -3518,7 +3194,7 @@
       <c r="G2" s="4"/>
       <c r="L2" s="23"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>161</v>
       </c>
@@ -3533,7 +3209,7 @@
       <c r="G3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -3544,7 +3220,7 @@
       <c r="G4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="25" t="s">
         <v>92</v>
       </c>
@@ -3582,7 +3258,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="28" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="28" customFormat="1" ht="51" customHeight="1">
       <c r="A6" s="27" t="s">
         <v>91</v>
       </c>
@@ -3617,7 +3293,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="29" t="s">
         <v>160</v>
       </c>
@@ -3655,7 +3331,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="33" customFormat="1">
       <c r="A8" s="29" t="s">
         <v>103</v>
       </c>
@@ -3693,7 +3369,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="33" customFormat="1">
       <c r="A9" s="29" t="s">
         <v>99</v>
       </c>
@@ -3731,7 +3407,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="33" customFormat="1">
       <c r="A10" s="29">
         <v>99</v>
       </c>
@@ -3769,7 +3445,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="30">
         <v>101</v>
       </c>
@@ -3807,7 +3483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="30">
         <v>102</v>
       </c>
@@ -3845,7 +3521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="30">
         <v>103</v>
       </c>
@@ -3883,7 +3559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="30">
         <v>201</v>
       </c>
@@ -3921,7 +3597,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="30">
         <v>202</v>
       </c>
@@ -3959,7 +3635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="30">
         <v>203</v>
       </c>
@@ -3997,7 +3673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="30">
         <v>204</v>
       </c>
@@ -4035,7 +3711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="30">
         <v>301</v>
       </c>
@@ -4073,7 +3749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="38" customFormat="1">
       <c r="A19" s="36">
         <v>401</v>
       </c>
@@ -4111,7 +3787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="38" customFormat="1">
       <c r="A20" s="36">
         <v>402</v>
       </c>
@@ -4149,7 +3825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="38" customFormat="1">
       <c r="A21" s="36">
         <v>403</v>
       </c>
@@ -4187,7 +3863,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="38" customFormat="1">
       <c r="A22" s="36">
         <v>404</v>
       </c>
@@ -4225,7 +3901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="38" customFormat="1">
       <c r="A23" s="36">
         <v>405</v>
       </c>
@@ -4264,23 +3940,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH131"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A131" sqref="A19:D131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:34" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="18" customFormat="1" ht="16.5">
       <c r="A1" s="16">
         <v>1403</v>
       </c>
@@ -4386,7 +4061,7 @@
       </c>
       <c r="AH1" s="20"/>
     </row>
-    <row r="2" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" s="5" customFormat="1" ht="16.5">
       <c r="A2" s="1">
         <v>1501</v>
       </c>
@@ -4492,7 +4167,7 @@
       </c>
       <c r="AH2"/>
     </row>
-    <row r="3" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" s="5" customFormat="1" ht="16.5">
       <c r="A3" s="1">
         <v>1502</v>
       </c>
@@ -4598,7 +4273,7 @@
       </c>
       <c r="AH3"/>
     </row>
-    <row r="4" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" s="5" customFormat="1" ht="16.5">
       <c r="A4" s="1">
         <v>1601</v>
       </c>
@@ -4703,8 +4378,8 @@
       </c>
       <c r="AH4"/>
     </row>
-    <row r="6" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="18.75" customHeight="1"/>
+    <row r="10" spans="1:34" s="5" customFormat="1" ht="16.5">
       <c r="A10" s="1">
         <v>1005</v>
       </c>
@@ -4811,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" s="5" customFormat="1" ht="16.5">
       <c r="A11" s="1">
         <v>1006</v>
       </c>
@@ -4918,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="5" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" s="5" customFormat="1" ht="16.5" hidden="1">
       <c r="A12" s="1">
         <v>1101</v>
       </c>
@@ -5025,7 +4700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="5" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" s="5" customFormat="1" ht="16.5" hidden="1">
       <c r="A13" s="1">
         <v>1102</v>
       </c>
@@ -5132,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" s="5" customFormat="1" ht="16.5">
       <c r="A14" s="1">
         <v>1103</v>
       </c>
@@ -5239,7 +4914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" s="5" customFormat="1" ht="16.5">
       <c r="A15" s="1">
         <v>1104</v>
       </c>
@@ -5346,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" s="5" customFormat="1" ht="16.5">
       <c r="A16" s="1">
         <v>1105</v>
       </c>
@@ -5453,7 +5128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>0</v>
       </c>
@@ -5467,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5481,7 +5156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>101</v>
       </c>
@@ -5495,7 +5170,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>201</v>
       </c>
@@ -5509,7 +5184,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>301</v>
       </c>
@@ -5523,7 +5198,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>401</v>
       </c>
@@ -5537,7 +5212,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>501</v>
       </c>
@@ -5551,7 +5226,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>601</v>
       </c>
@@ -5565,7 +5240,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>701</v>
       </c>
@@ -5579,7 +5254,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>801</v>
       </c>
@@ -5593,7 +5268,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>901</v>
       </c>
@@ -5607,7 +5282,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>1001</v>
       </c>
@@ -5621,7 +5296,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>1101</v>
       </c>
@@ -5635,7 +5310,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>1201</v>
       </c>
@@ -5649,7 +5324,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>1301</v>
       </c>
@@ -5663,7 +5338,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>1401</v>
       </c>
@@ -5677,7 +5352,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>1501</v>
       </c>
@@ -5691,7 +5366,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>1601</v>
       </c>
@@ -5705,7 +5380,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>1701</v>
       </c>
@@ -5719,7 +5394,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>1801</v>
       </c>
@@ -5733,7 +5408,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>1901</v>
       </c>
@@ -5747,7 +5422,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>2001</v>
       </c>
@@ -5761,7 +5436,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>2101</v>
       </c>
@@ -5775,7 +5450,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>2201</v>
       </c>
@@ -5789,7 +5464,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>2301</v>
       </c>
@@ -5803,7 +5478,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>2401</v>
       </c>
@@ -5817,7 +5492,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>2501</v>
       </c>
@@ -5831,7 +5506,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>2601</v>
       </c>
@@ -5845,7 +5520,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>2701</v>
       </c>
@@ -5859,7 +5534,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>2801</v>
       </c>
@@ -5873,7 +5548,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>2901</v>
       </c>
@@ -5887,7 +5562,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>3001</v>
       </c>
@@ -5901,7 +5576,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>3101</v>
       </c>
@@ -5915,7 +5590,7 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>3201</v>
       </c>
@@ -5929,7 +5604,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>3401</v>
       </c>
@@ -5943,7 +5618,7 @@
         <v>3404</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>3501</v>
       </c>
@@ -5957,7 +5632,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>3601</v>
       </c>
@@ -5971,7 +5646,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>3701</v>
       </c>
@@ -5985,7 +5660,7 @@
         <v>3704</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>3801</v>
       </c>
@@ -5999,7 +5674,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>3901</v>
       </c>
@@ -6013,7 +5688,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>4001</v>
       </c>
@@ -6027,7 +5702,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>4101</v>
       </c>
@@ -6041,7 +5716,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>4201</v>
       </c>
@@ -6055,7 +5730,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>4301</v>
       </c>
@@ -6069,7 +5744,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>4401</v>
       </c>
@@ -6083,7 +5758,7 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>4501</v>
       </c>
@@ -6097,7 +5772,7 @@
         <v>4504</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>4601</v>
       </c>
@@ -6111,7 +5786,7 @@
         <v>4604</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>4701</v>
       </c>
@@ -6125,7 +5800,7 @@
         <v>4704</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>4801</v>
       </c>
@@ -6139,7 +5814,7 @@
         <v>4804</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>4901</v>
       </c>
@@ -6153,7 +5828,7 @@
         <v>4904</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>5001</v>
       </c>
@@ -6167,7 +5842,7 @@
         <v>5004</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>5101</v>
       </c>
@@ -6181,7 +5856,7 @@
         <v>5104</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>5201</v>
       </c>
@@ -6195,7 +5870,7 @@
         <v>5204</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>5301</v>
       </c>
@@ -6209,7 +5884,7 @@
         <v>5304</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>5401</v>
       </c>
@@ -6223,7 +5898,7 @@
         <v>5404</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>5501</v>
       </c>
@@ -6237,7 +5912,7 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>5601</v>
       </c>
@@ -6251,7 +5926,7 @@
         <v>5604</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>5701</v>
       </c>
@@ -6265,7 +5940,7 @@
         <v>5704</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>5801</v>
       </c>
@@ -6279,7 +5954,7 @@
         <v>5804</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>5901</v>
       </c>
@@ -6293,7 +5968,7 @@
         <v>5904</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>6001</v>
       </c>
@@ -6307,7 +5982,7 @@
         <v>6004</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>6101</v>
       </c>
@@ -6321,7 +5996,7 @@
         <v>6104</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>6201</v>
       </c>
@@ -6335,7 +6010,7 @@
         <v>6204</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>6301</v>
       </c>
@@ -6349,7 +6024,7 @@
         <v>6304</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>6401</v>
       </c>
@@ -6363,7 +6038,7 @@
         <v>6404</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>6501</v>
       </c>
@@ -6377,7 +6052,7 @@
         <v>6504</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>6601</v>
       </c>
@@ -6391,7 +6066,7 @@
         <v>6604</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>6701</v>
       </c>
@@ -6405,7 +6080,7 @@
         <v>6704</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>6801</v>
       </c>
@@ -6419,7 +6094,7 @@
         <v>6804</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>6901</v>
       </c>
@@ -6433,7 +6108,7 @@
         <v>6904</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>7001</v>
       </c>
@@ -6447,7 +6122,7 @@
         <v>7004</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>7201</v>
       </c>
@@ -6461,7 +6136,7 @@
         <v>7204</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>7501</v>
       </c>
@@ -6475,7 +6150,7 @@
         <v>7504</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>7601</v>
       </c>
@@ -6489,7 +6164,7 @@
         <v>7604</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>8001</v>
       </c>
@@ -6503,7 +6178,7 @@
         <v>8004</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>9201</v>
       </c>
@@ -6517,7 +6192,7 @@
         <v>9204</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>9301</v>
       </c>
@@ -6531,7 +6206,7 @@
         <v>9304</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>9401</v>
       </c>
@@ -6545,7 +6220,7 @@
         <v>9404</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>9501</v>
       </c>
@@ -6559,7 +6234,7 @@
         <v>9504</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>9601</v>
       </c>
@@ -6573,7 +6248,7 @@
         <v>9604</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>9701</v>
       </c>
@@ -6587,7 +6262,7 @@
         <v>9704</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>9801</v>
       </c>
@@ -6601,7 +6276,7 @@
         <v>9804</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>9901</v>
       </c>
@@ -6615,7 +6290,7 @@
         <v>9904</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>10001</v>
       </c>
@@ -6629,7 +6304,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>10101</v>
       </c>
@@ -6643,7 +6318,7 @@
         <v>10104</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>10201</v>
       </c>
@@ -6657,7 +6332,7 @@
         <v>10204</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>10301</v>
       </c>
@@ -6671,7 +6346,7 @@
         <v>10304</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>10401</v>
       </c>
@@ -6685,7 +6360,7 @@
         <v>10404</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>10501</v>
       </c>
@@ -6699,7 +6374,7 @@
         <v>10504</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>10601</v>
       </c>
@@ -6713,7 +6388,7 @@
         <v>10604</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>10701</v>
       </c>
@@ -6727,7 +6402,7 @@
         <v>10704</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>10801</v>
       </c>
@@ -6741,7 +6416,7 @@
         <v>10804</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>10901</v>
       </c>
@@ -6755,7 +6430,7 @@
         <v>10904</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>11001</v>
       </c>
@@ -6769,7 +6444,7 @@
         <v>11004</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>11101</v>
       </c>
@@ -6783,7 +6458,7 @@
         <v>11104</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>11201</v>
       </c>
@@ -6797,7 +6472,7 @@
         <v>11204</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>11301</v>
       </c>
@@ -6811,7 +6486,7 @@
         <v>11304</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>11401</v>
       </c>
@@ -6825,7 +6500,7 @@
         <v>11404</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>11501</v>
       </c>
@@ -6839,7 +6514,7 @@
         <v>11504</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>11801</v>
       </c>
@@ -6853,7 +6528,7 @@
         <v>11804</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>11901</v>
       </c>
@@ -6867,7 +6542,7 @@
         <v>11904</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>12001</v>
       </c>
@@ -6881,7 +6556,7 @@
         <v>12004</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>12101</v>
       </c>
@@ -6895,7 +6570,7 @@
         <v>12104</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>12201</v>
       </c>
@@ -6909,7 +6584,7 @@
         <v>12204</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>12301</v>
       </c>
@@ -6923,7 +6598,7 @@
         <v>12304</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>12401</v>
       </c>
@@ -6937,7 +6612,7 @@
         <v>12404</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>12501</v>
       </c>
@@ -6951,7 +6626,7 @@
         <v>12504</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>12601</v>
       </c>
@@ -6965,7 +6640,7 @@
         <v>12604</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>12701</v>
       </c>
@@ -6979,7 +6654,7 @@
         <v>12704</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>12801</v>
       </c>
@@ -6993,7 +6668,7 @@
         <v>12804</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>12901</v>
       </c>
@@ -7007,7 +6682,7 @@
         <v>12904</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4">
       <c r="A130">
         <v>13001</v>
       </c>
@@ -7021,7 +6696,7 @@
         <v>13004</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>13101</v>
       </c>
@@ -7036,23 +6711,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="33" customFormat="1" ht="16.5">
       <c r="A1" s="29" t="s">
         <v>103</v>
       </c>
@@ -7087,7 +6762,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="16.5">
       <c r="A2" s="29" t="s">
         <v>99</v>
       </c>
@@ -7122,7 +6797,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="16.5">
       <c r="A3" s="29">
         <v>99</v>
       </c>
@@ -7157,7 +6832,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A4" s="30">
         <v>101</v>
       </c>
@@ -7192,7 +6867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A5" s="30">
         <v>102</v>
       </c>
@@ -7227,7 +6902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A6" s="30">
         <v>103</v>
       </c>
@@ -7262,7 +6937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A7" s="30">
         <v>201</v>
       </c>
@@ -7297,7 +6972,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A8" s="30">
         <v>202</v>
       </c>
@@ -7332,7 +7007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A9" s="30">
         <v>203</v>
       </c>
@@ -7367,7 +7042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A10" s="30">
         <v>204</v>
       </c>
@@ -7402,7 +7077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A11" s="30">
         <v>301</v>
       </c>
@@ -7437,7 +7112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A12" s="36">
         <v>401</v>
       </c>
@@ -7472,7 +7147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A13" s="36">
         <v>402</v>
       </c>
@@ -7507,7 +7182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A14" s="36">
         <v>403</v>
       </c>
@@ -7542,7 +7217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A15" s="36">
         <v>404</v>
       </c>
@@ -7577,7 +7252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A16" s="36">
         <v>405</v>
       </c>
@@ -7612,7 +7287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A17" s="36">
         <v>406</v>
       </c>
@@ -7647,7 +7322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A18" s="36">
         <v>407</v>
       </c>
@@ -7682,7 +7357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A19" s="36">
         <v>408</v>
       </c>
@@ -7717,7 +7392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A20" s="36">
         <v>409</v>
       </c>
@@ -7752,7 +7427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A21" s="30">
         <v>410</v>
       </c>
@@ -7787,7 +7462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A22" s="30">
         <v>411</v>
       </c>
@@ -7822,7 +7497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A23" s="30">
         <v>412</v>
       </c>
@@ -7857,7 +7532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A24" s="30">
         <v>413</v>
       </c>
@@ -7892,7 +7567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A25" s="30">
         <v>414</v>
       </c>
@@ -7927,7 +7602,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A26" s="30">
         <v>415</v>
       </c>
@@ -7962,7 +7637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A27" s="30">
         <v>416</v>
       </c>
@@ -7997,7 +7672,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A28" s="30">
         <v>417</v>
       </c>
@@ -8032,7 +7707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A29" s="30">
         <v>418</v>
       </c>
@@ -8067,7 +7742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A30" s="30">
         <v>419</v>
       </c>
@@ -8104,7 +7779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A31" s="30">
         <v>420</v>
       </c>
@@ -8141,7 +7816,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A32" s="30">
         <v>421</v>
       </c>
@@ -8178,7 +7853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A33" s="30">
         <v>422</v>
       </c>
@@ -8215,7 +7890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A34" s="30">
         <v>423</v>
       </c>
@@ -8252,7 +7927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A35" s="30">
         <v>424</v>
       </c>
@@ -8289,7 +7964,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A36" s="30">
         <v>425</v>
       </c>
@@ -8326,7 +8001,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A37" s="30">
         <v>426</v>
       </c>
@@ -8363,7 +8038,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A38" s="30">
         <v>427</v>
       </c>
@@ -8398,7 +8073,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A39" s="30">
         <v>428</v>
       </c>
@@ -8433,7 +8108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A40" s="30">
         <v>429</v>
       </c>
@@ -8468,7 +8143,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A41" s="30">
         <v>430</v>
       </c>
@@ -8503,7 +8178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A42" s="30">
         <v>431</v>
       </c>
@@ -8538,7 +8213,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A43" s="30">
         <v>432</v>
       </c>
@@ -8573,7 +8248,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A44" s="30">
         <v>433</v>
       </c>
@@ -8608,7 +8283,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A45" s="30">
         <v>434</v>
       </c>
@@ -8643,7 +8318,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A46" s="30">
         <v>435</v>
       </c>
@@ -8678,7 +8353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A47" s="30">
         <v>436</v>
       </c>
@@ -8713,7 +8388,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A48" s="30">
         <v>437</v>
       </c>
@@ -8748,7 +8423,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="42" customFormat="1" ht="16.5">
       <c r="A49" s="40">
         <v>438</v>
       </c>
@@ -8783,7 +8458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A50" s="30">
         <v>439</v>
       </c>
@@ -8818,7 +8493,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A51" s="30">
         <v>440</v>
       </c>
@@ -8853,7 +8528,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A52" s="30">
         <v>441</v>
       </c>
@@ -8888,7 +8563,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A53" s="30">
         <v>442</v>
       </c>
@@ -8923,7 +8598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="42" customFormat="1" ht="16.5">
       <c r="A54" s="40">
         <v>443</v>
       </c>
@@ -8958,7 +8633,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A55" s="30">
         <v>444</v>
       </c>
@@ -8993,7 +8668,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A56" s="30">
         <v>445</v>
       </c>
@@ -9028,7 +8703,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A57" s="30">
         <v>446</v>
       </c>
@@ -9063,7 +8738,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A58" s="30">
         <v>447</v>
       </c>
@@ -9098,7 +8773,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A59" s="30">
         <v>448</v>
       </c>
@@ -9133,7 +8808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A60" s="30">
         <v>501</v>
       </c>
@@ -9168,7 +8843,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A61" s="30">
         <v>502</v>
       </c>
@@ -9203,7 +8878,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="22" customFormat="1" ht="16.5">
       <c r="A62" s="31">
         <v>509</v>
       </c>
@@ -9238,7 +8913,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A63" s="30">
         <v>601</v>
       </c>
@@ -9275,7 +8950,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A64" s="30">
         <v>602</v>
       </c>
@@ -9312,7 +8987,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A65" s="30">
         <v>603</v>
       </c>
@@ -9347,7 +9022,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A66" s="30">
         <v>701</v>
       </c>
@@ -9384,7 +9059,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A67" s="30">
         <v>702</v>
       </c>
@@ -9421,7 +9096,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A68" s="30">
         <v>801</v>
       </c>
@@ -9456,7 +9131,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A69" s="30">
         <v>802</v>
       </c>
@@ -9491,7 +9166,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A70" s="30">
         <v>901</v>
       </c>
@@ -9528,7 +9203,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A71" s="30">
         <v>902</v>
       </c>
@@ -9563,7 +9238,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A72" s="30">
         <v>1001</v>
       </c>
@@ -9598,7 +9273,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A73" s="30">
         <v>1002</v>
       </c>
@@ -9633,7 +9308,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A74" s="30">
         <v>1004</v>
       </c>
@@ -9668,7 +9343,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A75" s="30">
         <v>1101</v>
       </c>
@@ -9703,7 +9378,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" s="30" customFormat="1" ht="16.5">
       <c r="A76" s="30">
         <v>1102</v>
       </c>
@@ -9738,7 +9413,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A77" s="30">
         <v>1201</v>
       </c>
@@ -9773,7 +9448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A78" s="30">
         <v>1301</v>
       </c>
@@ -9808,7 +9483,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A79" s="30">
         <v>1302</v>
       </c>
@@ -9843,7 +9518,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A80" s="30">
         <v>1307</v>
       </c>
@@ -9878,7 +9553,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A81" s="30">
         <v>1308</v>
       </c>
@@ -9913,7 +9588,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A82" s="30">
         <v>1309</v>
       </c>
@@ -9948,7 +9623,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A83" s="30">
         <v>1310</v>
       </c>
@@ -9983,7 +9658,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A84" s="30">
         <v>1311</v>
       </c>
@@ -10018,7 +9693,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A85" s="30">
         <v>1312</v>
       </c>
@@ -10053,7 +9728,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A86" s="30">
         <v>1313</v>
       </c>
@@ -10088,7 +9763,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="8" customFormat="1" ht="33">
       <c r="A87" s="30">
         <v>1314</v>
       </c>
@@ -10123,7 +9798,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A88" s="30">
         <v>1315</v>
       </c>
@@ -10158,7 +9833,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A89" s="30">
         <v>1316</v>
       </c>
@@ -10193,7 +9868,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A90" s="30">
         <v>1317</v>
       </c>
@@ -10228,7 +9903,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A91" s="30">
         <v>1318</v>
       </c>
@@ -10263,7 +9938,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A92" s="30">
         <v>1319</v>
       </c>
@@ -10298,7 +9973,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A93" s="30">
         <v>1320</v>
       </c>
@@ -10333,7 +10008,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A94" s="30">
         <v>1321</v>
       </c>
@@ -10368,7 +10043,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A95" s="30">
         <v>1322</v>
       </c>
@@ -10403,7 +10078,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A96" s="30">
         <v>1303</v>
       </c>
@@ -10438,7 +10113,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A97" s="30">
         <v>1304</v>
       </c>
@@ -10473,7 +10148,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" s="42" customFormat="1" ht="16.5">
       <c r="A98" s="40">
         <v>1305</v>
       </c>
@@ -10508,7 +10183,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" s="8" customFormat="1" ht="33">
       <c r="A99" s="30">
         <v>1306</v>
       </c>
@@ -10543,7 +10218,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A100" s="30">
         <v>1401</v>
       </c>
@@ -10578,7 +10253,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" s="42" customFormat="1" ht="16.5">
       <c r="A101" s="40">
         <v>1403</v>
       </c>
@@ -10615,7 +10290,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A102" s="30">
         <v>1601</v>
       </c>
@@ -10650,7 +10325,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A103" s="30">
         <v>1602</v>
       </c>
@@ -10685,7 +10360,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A104" s="30">
         <v>1603</v>
       </c>
@@ -10720,7 +10395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A105" s="30">
         <v>1604</v>
       </c>
@@ -10755,7 +10430,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A106" s="30">
         <v>1605</v>
       </c>
@@ -10790,7 +10465,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A107" s="30">
         <v>1701</v>
       </c>
@@ -10825,7 +10500,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A108" s="30">
         <v>1801</v>
       </c>
@@ -10860,7 +10535,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A109" s="30">
         <v>1802</v>
       </c>
@@ -10895,7 +10570,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A110" s="30">
         <v>1803</v>
       </c>
@@ -10930,7 +10605,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A111" s="30">
         <v>1804</v>
       </c>
@@ -10965,7 +10640,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A112" s="30">
         <v>1805</v>
       </c>
@@ -11000,7 +10675,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A113" s="30">
         <v>1806</v>
       </c>
@@ -11035,7 +10710,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A114" s="30">
         <v>1807</v>
       </c>
@@ -11070,7 +10745,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A115" s="30">
         <v>1808</v>
       </c>
@@ -11106,8 +10781,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/res/source/cfg_building_new.xlsx
+++ b/res/source/cfg_building_new.xlsx
@@ -16,12 +16,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data_Sheet1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="299">
   <si>
     <t>建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1076,6 +1075,98 @@
   </si>
   <si>
     <t>0,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_type_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotion_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layoutX_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_idx_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gateX_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gateY_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>terrain_flags_j</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>supply_population_type_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDoor_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc1_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc2_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc3_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f2_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f3_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f4_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f5_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f6_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f7_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f8_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f9_j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f10_j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1738,13 +1829,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2140,115 +2231,115 @@
       </c>
     </row>
     <row r="7" spans="1:23" s="33" customFormat="1">
-      <c r="A7" s="29">
+      <c r="A7" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="P7" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q7" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="R7" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="S7" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="T7" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="U7" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="V7" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="W7" s="33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="33" customFormat="1">
+      <c r="A8" s="29">
         <v>99</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B8" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="32">
-        <v>0</v>
-      </c>
-      <c r="D7" s="32">
-        <v>0</v>
-      </c>
-      <c r="E7" s="32">
-        <v>0</v>
-      </c>
-      <c r="F7" s="32">
+      <c r="C8" s="32">
+        <v>0</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="32">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32">
         <v>3.5</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G8" s="32">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="H7" s="26">
-        <v>0</v>
-      </c>
-      <c r="I7" s="30">
-        <v>0</v>
-      </c>
-      <c r="J7" s="30">
-        <v>0</v>
-      </c>
-      <c r="K7" s="32" t="s">
+      <c r="H8" s="26">
+        <v>0</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0</v>
+      </c>
+      <c r="K8" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L8" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M8" s="32" t="s">
         <v>190</v>
-      </c>
-      <c r="N7" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="O7" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="P7" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q7" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="R7" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="S7" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="T7" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="U7" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="V7" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="W7" s="33" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="17.25">
-      <c r="A8" s="30">
-        <v>101</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="30">
-        <v>1</v>
-      </c>
-      <c r="D8" s="30">
-        <v>1</v>
-      </c>
-      <c r="E8" s="30">
-        <v>1</v>
-      </c>
-      <c r="F8" s="54">
-        <v>-2147483647</v>
-      </c>
-      <c r="G8" s="54">
-        <v>-2147483647</v>
-      </c>
-      <c r="H8" s="55">
-        <v>-2147483648</v>
-      </c>
-      <c r="I8" s="30">
-        <v>-32768</v>
-      </c>
-      <c r="J8" s="30">
-        <v>1</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="32" t="s">
-        <v>191</v>
       </c>
       <c r="N8" s="33" t="s">
         <v>209</v>
@@ -2272,54 +2363,54 @@
         <v>238</v>
       </c>
       <c r="U8" s="33" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V8" s="33" t="s">
         <v>256</v>
       </c>
       <c r="W8" s="33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="17.25">
       <c r="A9" s="30">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="30">
-        <v>127</v>
+        <v>1</v>
       </c>
       <c r="D9" s="30">
-        <v>32767</v>
-      </c>
-      <c r="E9" s="56">
-        <v>2147483647</v>
+        <v>1</v>
+      </c>
+      <c r="E9" s="30">
+        <v>1</v>
       </c>
       <c r="F9" s="54">
-        <v>2147483646</v>
+        <v>-2147483647</v>
       </c>
       <c r="G9" s="54">
-        <v>2147483646</v>
+        <v>-2147483647</v>
       </c>
       <c r="H9" s="55">
-        <v>2147483647</v>
+        <v>-2147483648</v>
       </c>
       <c r="I9" s="30">
-        <v>32767</v>
+        <v>-32768</v>
       </c>
       <c r="J9" s="30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9" s="30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N9" s="33" t="s">
         <v>209</v>
@@ -2343,54 +2434,54 @@
         <v>238</v>
       </c>
       <c r="U9" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V9" s="33" t="s">
         <v>256</v>
       </c>
       <c r="W9" s="33" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="17.25">
       <c r="A10" s="30">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="30">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="30">
-        <v>32768</v>
+        <v>32767</v>
       </c>
       <c r="E10" s="56">
-        <v>2147483648</v>
-      </c>
-      <c r="F10" s="29">
+        <v>2147483647</v>
+      </c>
+      <c r="F10" s="54">
+        <v>2147483646</v>
+      </c>
+      <c r="G10" s="54">
+        <v>2147483646</v>
+      </c>
+      <c r="H10" s="55">
+        <v>2147483647</v>
+      </c>
+      <c r="I10" s="30">
+        <v>32767</v>
+      </c>
+      <c r="J10" s="30">
         <v>-1</v>
       </c>
-      <c r="G10" s="29">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="29">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="30">
-        <v>-1</v>
-      </c>
-      <c r="J10" s="30">
-        <v>126</v>
-      </c>
       <c r="K10" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N10" s="33" t="s">
         <v>209</v>
@@ -2414,54 +2505,54 @@
         <v>238</v>
       </c>
       <c r="U10" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="V10" s="33" t="s">
         <v>256</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="17.25">
       <c r="A11" s="30">
-        <v>201</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>135</v>
+        <v>103</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>4</v>
       </c>
       <c r="C11" s="30">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="30">
-        <v>32769</v>
+        <v>32768</v>
       </c>
       <c r="E11" s="56">
-        <v>2147483649</v>
+        <v>2147483648</v>
       </c>
       <c r="F11" s="29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G11" s="29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I11" s="30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J11" s="30">
-        <v>127</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>135</v>
+        <v>126</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>4</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N11" s="33" t="s">
         <v>209</v>
@@ -2485,54 +2576,54 @@
         <v>238</v>
       </c>
       <c r="U11" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="V11" s="33" t="s">
         <v>256</v>
       </c>
       <c r="W11" s="33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="17.25">
       <c r="A12" s="30">
-        <v>202</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>5</v>
+        <v>201</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="C12" s="30">
-        <v>255</v>
+        <v>129</v>
       </c>
       <c r="D12" s="30">
-        <v>65535</v>
+        <v>32769</v>
       </c>
       <c r="E12" s="56">
-        <v>4294967295</v>
-      </c>
-      <c r="F12" s="54">
-        <v>-2147483647</v>
-      </c>
-      <c r="G12" s="54">
-        <v>-2147483647</v>
-      </c>
-      <c r="H12" s="55">
-        <v>-2147483648</v>
+        <v>2147483649</v>
+      </c>
+      <c r="F12" s="29">
+        <v>1</v>
+      </c>
+      <c r="G12" s="29">
+        <v>1</v>
+      </c>
+      <c r="H12" s="29">
+        <v>1</v>
       </c>
       <c r="I12" s="30">
-        <v>-32767</v>
+        <v>1</v>
       </c>
       <c r="J12" s="30">
-        <v>-128</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>5</v>
+        <v>127</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>135</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N12" s="33" t="s">
         <v>209</v>
@@ -2556,21 +2647,21 @@
         <v>238</v>
       </c>
       <c r="U12" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="V12" s="33" t="s">
         <v>256</v>
       </c>
       <c r="W12" s="33" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="17.25">
       <c r="A13" s="30">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="30">
         <v>255</v>
@@ -2582,28 +2673,28 @@
         <v>4294967295</v>
       </c>
       <c r="F13" s="54">
-        <v>2147483646</v>
+        <v>-2147483647</v>
       </c>
       <c r="G13" s="54">
-        <v>2147483646</v>
+        <v>-2147483647</v>
       </c>
       <c r="H13" s="55">
-        <v>2147483647</v>
+        <v>-2147483648</v>
       </c>
       <c r="I13" s="30">
-        <v>32766</v>
+        <v>-32767</v>
       </c>
       <c r="J13" s="30">
-        <v>-127</v>
+        <v>-128</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M13" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N13" s="33" t="s">
         <v>209</v>
@@ -2627,54 +2718,54 @@
         <v>238</v>
       </c>
       <c r="U13" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="V13" s="33" t="s">
         <v>256</v>
       </c>
       <c r="W13" s="33" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="17.25">
       <c r="A14" s="30">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="30">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="D14" s="30">
-        <v>5</v>
-      </c>
-      <c r="E14" s="30">
-        <v>20401</v>
-      </c>
-      <c r="F14" s="30">
-        <v>2</v>
-      </c>
-      <c r="G14" s="30">
-        <v>2</v>
-      </c>
-      <c r="H14" s="29">
-        <v>458894</v>
-      </c>
-      <c r="I14" s="24">
-        <v>0</v>
+        <v>65535</v>
+      </c>
+      <c r="E14" s="56">
+        <v>4294967295</v>
+      </c>
+      <c r="F14" s="54">
+        <v>2147483646</v>
+      </c>
+      <c r="G14" s="54">
+        <v>2147483646</v>
+      </c>
+      <c r="H14" s="55">
+        <v>2147483647</v>
+      </c>
+      <c r="I14" s="30">
+        <v>32766</v>
       </c>
       <c r="J14" s="30">
-        <v>1</v>
+        <v>-127</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L14" s="35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N14" s="33" t="s">
         <v>209</v>
@@ -2698,30 +2789,30 @@
         <v>238</v>
       </c>
       <c r="U14" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="V14" s="33" t="s">
         <v>256</v>
       </c>
       <c r="W14" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="17.25">
       <c r="A15" s="30">
-        <v>301</v>
+        <v>204</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>148</v>
+        <v>7</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1</v>
       </c>
       <c r="D15" s="30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="30">
-        <v>30101</v>
+        <v>20401</v>
       </c>
       <c r="F15" s="30">
         <v>2</v>
@@ -2733,19 +2824,19 @@
         <v>458894</v>
       </c>
       <c r="I15" s="24">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="J15" s="30">
         <v>1</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L15" s="35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N15" s="33" t="s">
         <v>209</v>
@@ -2769,54 +2860,54 @@
         <v>238</v>
       </c>
       <c r="U15" s="33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="V15" s="33" t="s">
         <v>256</v>
       </c>
       <c r="W15" s="33" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" s="38" customFormat="1" ht="17.25">
-      <c r="A16" s="36">
-        <v>401</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="36">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="17.25">
+      <c r="A16" s="30">
+        <v>301</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="30">
         <v>6</v>
       </c>
-      <c r="E16" s="36">
-        <v>40101</v>
-      </c>
-      <c r="F16" s="36">
-        <v>-5.6</v>
-      </c>
-      <c r="G16" s="36">
-        <v>2.2999999999999998</v>
+      <c r="E16" s="30">
+        <v>30101</v>
+      </c>
+      <c r="F16" s="30">
+        <v>2</v>
+      </c>
+      <c r="G16" s="30">
+        <v>2</v>
       </c>
       <c r="H16" s="29">
         <v>458894</v>
       </c>
-      <c r="I16" s="39">
-        <v>0</v>
-      </c>
-      <c r="J16" s="36">
-        <v>1</v>
-      </c>
-      <c r="K16" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>9</v>
+      <c r="I16" s="24">
+        <v>234</v>
+      </c>
+      <c r="J16" s="30">
+        <v>1</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>8</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N16" s="33" t="s">
         <v>209</v>
@@ -2840,36 +2931,36 @@
         <v>238</v>
       </c>
       <c r="U16" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V16" s="33" t="s">
         <v>256</v>
       </c>
       <c r="W16" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="38" customFormat="1" ht="17.25">
       <c r="A17" s="36">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D17" s="36">
         <v>6</v>
       </c>
       <c r="E17" s="36">
-        <v>40201</v>
+        <v>40101</v>
       </c>
       <c r="F17" s="36">
-        <v>2</v>
+        <v>-5.6</v>
       </c>
       <c r="G17" s="36">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H17" s="29">
         <v>458894</v>
@@ -2881,13 +2972,13 @@
         <v>1</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N17" s="33" t="s">
         <v>209</v>
@@ -2911,36 +3002,36 @@
         <v>238</v>
       </c>
       <c r="U17" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V17" s="33" t="s">
         <v>256</v>
       </c>
       <c r="W17" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="38" customFormat="1" ht="17.25">
       <c r="A18" s="36">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="37" t="s">
         <v>128</v>
       </c>
       <c r="D18" s="36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="36">
-        <v>40301</v>
+        <v>40201</v>
       </c>
       <c r="F18" s="36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G18" s="36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H18" s="29">
         <v>458894</v>
@@ -2952,13 +3043,13 @@
         <v>1</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M18" s="32" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N18" s="33" t="s">
         <v>209</v>
@@ -2982,36 +3073,36 @@
         <v>238</v>
       </c>
       <c r="U18" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V18" s="33" t="s">
         <v>256</v>
       </c>
       <c r="W18" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:23" s="38" customFormat="1" ht="17.25">
       <c r="A19" s="36">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="37" t="s">
         <v>128</v>
       </c>
       <c r="D19" s="36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19" s="36">
-        <v>40401</v>
+        <v>40301</v>
       </c>
       <c r="F19" s="36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G19" s="36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H19" s="29">
         <v>458894</v>
@@ -3023,13 +3114,13 @@
         <v>1</v>
       </c>
       <c r="K19" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N19" s="33" t="s">
         <v>209</v>
@@ -3053,30 +3144,30 @@
         <v>238</v>
       </c>
       <c r="U19" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V19" s="33" t="s">
         <v>256</v>
       </c>
       <c r="W19" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="38" customFormat="1" ht="17.25">
       <c r="A20" s="36">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="37" t="s">
         <v>128</v>
       </c>
       <c r="D20" s="36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" s="36">
-        <v>40501</v>
+        <v>40401</v>
       </c>
       <c r="F20" s="36">
         <v>2</v>
@@ -3094,13 +3185,13 @@
         <v>1</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L20" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N20" s="33" t="s">
         <v>209</v>
@@ -3124,12 +3215,83 @@
         <v>238</v>
       </c>
       <c r="U20" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="V20" s="33" t="s">
         <v>256</v>
       </c>
       <c r="W20" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" s="38" customFormat="1" ht="17.25">
+      <c r="A21" s="36">
+        <v>405</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="36">
+        <v>4</v>
+      </c>
+      <c r="E21" s="36">
+        <v>40501</v>
+      </c>
+      <c r="F21" s="36">
+        <v>2</v>
+      </c>
+      <c r="G21" s="36">
+        <v>2</v>
+      </c>
+      <c r="H21" s="29">
+        <v>458894</v>
+      </c>
+      <c r="I21" s="39">
+        <v>0</v>
+      </c>
+      <c r="J21" s="36">
+        <v>1</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q21" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="R21" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="S21" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="T21" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="U21" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="V21" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="W21" s="33" t="s">
         <v>270</v>
       </c>
     </row>

--- a/res/source/cfg_building_new.xlsx
+++ b/res/source/cfg_building_new.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DB7696-17A5-444C-8206-72C1E4AE04FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6510" yWindow="495" windowWidth="21390" windowHeight="8865"/>
+    <workbookView xWindow="39705" yWindow="2880" windowWidth="16875" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,12 +16,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data_Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="300">
   <si>
     <t>建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1169,12 +1179,16 @@
     <t>f10_j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1501,7 +1515,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1528,7 +1542,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1545,7 +1559,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1587,7 +1601,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1619,9 +1633,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1653,6 +1685,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1828,20 +1878,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="W8" sqref="W8"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.625" style="8" bestFit="1" customWidth="1"/>
@@ -1850,7 +1900,8 @@
     <col min="8" max="8" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="8" customWidth="1"/>
     <col min="10" max="10" width="9.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.25" style="8" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.625" style="8" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" style="8" bestFit="1" customWidth="1"/>
     <col min="15" max="21" width="9" style="8"/>
@@ -1858,7 +1909,7 @@
     <col min="24" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>204</v>
       </c>
@@ -1866,19 +1917,13 @@
         <v>272</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>164</v>
+        <v>299</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>92</v>
       </c>
@@ -1949,7 +1994,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="28" customFormat="1" ht="66">
+    <row r="3" spans="1:23" s="28" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>91</v>
       </c>
@@ -2017,7 +2062,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
         <v>160</v>
       </c>
@@ -2088,7 +2133,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="33" customFormat="1">
+    <row r="5" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>103</v>
       </c>
@@ -2159,7 +2204,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="33" customFormat="1">
+    <row r="6" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>99</v>
       </c>
@@ -2230,7 +2275,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="33" customFormat="1">
+    <row r="7" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>276</v>
       </c>
@@ -2301,7 +2346,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="33" customFormat="1">
+    <row r="8" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29">
         <v>99</v>
       </c>
@@ -2372,7 +2417,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="17.25">
+    <row r="9" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A9" s="30">
         <v>101</v>
       </c>
@@ -2443,7 +2488,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="17.25">
+    <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A10" s="30">
         <v>102</v>
       </c>
@@ -2514,7 +2559,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="17.25">
+    <row r="11" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A11" s="30">
         <v>103</v>
       </c>
@@ -2585,7 +2630,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="17.25">
+    <row r="12" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A12" s="30">
         <v>201</v>
       </c>
@@ -2656,7 +2701,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="17.25">
+    <row r="13" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A13" s="30">
         <v>202</v>
       </c>
@@ -2727,7 +2772,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="17.25">
+    <row r="14" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A14" s="30">
         <v>203</v>
       </c>
@@ -2798,7 +2843,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="17.25">
+    <row r="15" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A15" s="30">
         <v>204</v>
       </c>
@@ -2869,7 +2914,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="17.25">
+    <row r="16" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A16" s="30">
         <v>301</v>
       </c>
@@ -2940,7 +2985,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="38" customFormat="1" ht="17.25">
+    <row r="17" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A17" s="36">
         <v>401</v>
       </c>
@@ -3011,7 +3056,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="38" customFormat="1" ht="17.25">
+    <row r="18" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A18" s="36">
         <v>402</v>
       </c>
@@ -3082,7 +3127,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="38" customFormat="1" ht="17.25">
+    <row r="19" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>403</v>
       </c>
@@ -3153,7 +3198,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="38" customFormat="1" ht="17.25">
+    <row r="20" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A20" s="36">
         <v>404</v>
       </c>
@@ -3224,7 +3269,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="38" customFormat="1" ht="17.25">
+    <row r="21" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A21" s="36">
         <v>405</v>
       </c>
@@ -3303,14 +3348,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="8" bestFit="1" customWidth="1"/>
@@ -3327,7 +3372,7 @@
     <col min="13" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>162</v>
       </c>
@@ -3342,7 +3387,7 @@
       <c r="G1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>163</v>
       </c>
@@ -3356,7 +3401,7 @@
       <c r="G2" s="4"/>
       <c r="L2" s="23"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>161</v>
       </c>
@@ -3371,7 +3416,7 @@
       <c r="G3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -3382,7 +3427,7 @@
       <c r="G4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>92</v>
       </c>
@@ -3420,7 +3465,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="28" customFormat="1" ht="51" customHeight="1">
+    <row r="6" spans="1:12" s="28" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>91</v>
       </c>
@@ -3455,7 +3500,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
         <v>160</v>
       </c>
@@ -3493,7 +3538,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="33" customFormat="1">
+    <row r="8" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>103</v>
       </c>
@@ -3531,7 +3576,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="33" customFormat="1">
+    <row r="9" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
         <v>99</v>
       </c>
@@ -3569,7 +3614,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="33" customFormat="1">
+    <row r="10" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29">
         <v>99</v>
       </c>
@@ -3607,7 +3652,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>101</v>
       </c>
@@ -3645,7 +3690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="30">
         <v>102</v>
       </c>
@@ -3683,7 +3728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="30">
         <v>103</v>
       </c>
@@ -3721,7 +3766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <v>201</v>
       </c>
@@ -3759,7 +3804,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="30">
         <v>202</v>
       </c>
@@ -3797,7 +3842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="30">
         <v>203</v>
       </c>
@@ -3835,7 +3880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="30">
         <v>204</v>
       </c>
@@ -3873,7 +3918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="30">
         <v>301</v>
       </c>
@@ -3911,7 +3956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="38" customFormat="1">
+    <row r="19" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36">
         <v>401</v>
       </c>
@@ -3949,7 +3994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="38" customFormat="1">
+    <row r="20" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="36">
         <v>402</v>
       </c>
@@ -3987,7 +4032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="38" customFormat="1">
+    <row r="21" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="36">
         <v>403</v>
       </c>
@@ -4025,7 +4070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="38" customFormat="1">
+    <row r="22" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="36">
         <v>404</v>
       </c>
@@ -4063,7 +4108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="38" customFormat="1">
+    <row r="23" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="36">
         <v>405</v>
       </c>
@@ -4108,16 +4153,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH131"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A131" sqref="A19:D131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:34" s="18" customFormat="1" ht="16.5">
+    <row r="1" spans="1:34" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="16">
         <v>1403</v>
       </c>
@@ -4223,7 +4268,7 @@
       </c>
       <c r="AH1" s="20"/>
     </row>
-    <row r="2" spans="1:34" s="5" customFormat="1" ht="16.5">
+    <row r="2" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1501</v>
       </c>
@@ -4329,7 +4374,7 @@
       </c>
       <c r="AH2"/>
     </row>
-    <row r="3" spans="1:34" s="5" customFormat="1" ht="16.5">
+    <row r="3" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1502</v>
       </c>
@@ -4435,7 +4480,7 @@
       </c>
       <c r="AH3"/>
     </row>
-    <row r="4" spans="1:34" s="5" customFormat="1" ht="16.5">
+    <row r="4" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1601</v>
       </c>
@@ -4540,8 +4585,8 @@
       </c>
       <c r="AH4"/>
     </row>
-    <row r="6" spans="1:34" ht="18.75" customHeight="1"/>
-    <row r="10" spans="1:34" s="5" customFormat="1" ht="16.5">
+    <row r="6" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1005</v>
       </c>
@@ -4648,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="5" customFormat="1" ht="16.5">
+    <row r="11" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1006</v>
       </c>
@@ -4755,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="5" customFormat="1" ht="16.5" hidden="1">
+    <row r="12" spans="1:34" s="5" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1101</v>
       </c>
@@ -4862,7 +4907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="5" customFormat="1" ht="16.5" hidden="1">
+    <row r="13" spans="1:34" s="5" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1102</v>
       </c>
@@ -4969,7 +5014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="5" customFormat="1" ht="16.5">
+    <row r="14" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1103</v>
       </c>
@@ -5076,7 +5121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="5" customFormat="1" ht="16.5">
+    <row r="15" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1104</v>
       </c>
@@ -5183,7 +5228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="5" customFormat="1" ht="16.5">
+    <row r="16" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1105</v>
       </c>
@@ -5290,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0</v>
       </c>
@@ -5304,7 +5349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5318,7 +5363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>101</v>
       </c>
@@ -5332,7 +5377,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>201</v>
       </c>
@@ -5346,7 +5391,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>301</v>
       </c>
@@ -5360,7 +5405,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>401</v>
       </c>
@@ -5374,7 +5419,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>501</v>
       </c>
@@ -5388,7 +5433,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>601</v>
       </c>
@@ -5402,7 +5447,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>701</v>
       </c>
@@ -5416,7 +5461,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>801</v>
       </c>
@@ -5430,7 +5475,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>901</v>
       </c>
@@ -5444,7 +5489,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1001</v>
       </c>
@@ -5458,7 +5503,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>1101</v>
       </c>
@@ -5472,7 +5517,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1201</v>
       </c>
@@ -5486,7 +5531,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>1301</v>
       </c>
@@ -5500,7 +5545,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>1401</v>
       </c>
@@ -5514,7 +5559,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>1501</v>
       </c>
@@ -5528,7 +5573,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>1601</v>
       </c>
@@ -5542,7 +5587,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1701</v>
       </c>
@@ -5556,7 +5601,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>1801</v>
       </c>
@@ -5570,7 +5615,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>1901</v>
       </c>
@@ -5584,7 +5629,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>2001</v>
       </c>
@@ -5598,7 +5643,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>2101</v>
       </c>
@@ -5612,7 +5657,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>2201</v>
       </c>
@@ -5626,7 +5671,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>2301</v>
       </c>
@@ -5640,7 +5685,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>2401</v>
       </c>
@@ -5654,7 +5699,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>2501</v>
       </c>
@@ -5668,7 +5713,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>2601</v>
       </c>
@@ -5682,7 +5727,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>2701</v>
       </c>
@@ -5696,7 +5741,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>2801</v>
       </c>
@@ -5710,7 +5755,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>2901</v>
       </c>
@@ -5724,7 +5769,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>3001</v>
       </c>
@@ -5738,7 +5783,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>3101</v>
       </c>
@@ -5752,7 +5797,7 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>3201</v>
       </c>
@@ -5766,7 +5811,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>3401</v>
       </c>
@@ -5780,7 +5825,7 @@
         <v>3404</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>3501</v>
       </c>
@@ -5794,7 +5839,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>3601</v>
       </c>
@@ -5808,7 +5853,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>3701</v>
       </c>
@@ -5822,7 +5867,7 @@
         <v>3704</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>3801</v>
       </c>
@@ -5836,7 +5881,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>3901</v>
       </c>
@@ -5850,7 +5895,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>4001</v>
       </c>
@@ -5864,7 +5909,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>4101</v>
       </c>
@@ -5878,7 +5923,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>4201</v>
       </c>
@@ -5892,7 +5937,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>4301</v>
       </c>
@@ -5906,7 +5951,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>4401</v>
       </c>
@@ -5920,7 +5965,7 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>4501</v>
       </c>
@@ -5934,7 +5979,7 @@
         <v>4504</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>4601</v>
       </c>
@@ -5948,7 +5993,7 @@
         <v>4604</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>4701</v>
       </c>
@@ -5962,7 +6007,7 @@
         <v>4704</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>4801</v>
       </c>
@@ -5976,7 +6021,7 @@
         <v>4804</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>4901</v>
       </c>
@@ -5990,7 +6035,7 @@
         <v>4904</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>5001</v>
       </c>
@@ -6004,7 +6049,7 @@
         <v>5004</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>5101</v>
       </c>
@@ -6018,7 +6063,7 @@
         <v>5104</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>5201</v>
       </c>
@@ -6032,7 +6077,7 @@
         <v>5204</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>5301</v>
       </c>
@@ -6046,7 +6091,7 @@
         <v>5304</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>5401</v>
       </c>
@@ -6060,7 +6105,7 @@
         <v>5404</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>5501</v>
       </c>
@@ -6074,7 +6119,7 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>5601</v>
       </c>
@@ -6088,7 +6133,7 @@
         <v>5604</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>5701</v>
       </c>
@@ -6102,7 +6147,7 @@
         <v>5704</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>5801</v>
       </c>
@@ -6116,7 +6161,7 @@
         <v>5804</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>5901</v>
       </c>
@@ -6130,7 +6175,7 @@
         <v>5904</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>6001</v>
       </c>
@@ -6144,7 +6189,7 @@
         <v>6004</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>6101</v>
       </c>
@@ -6158,7 +6203,7 @@
         <v>6104</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>6201</v>
       </c>
@@ -6172,7 +6217,7 @@
         <v>6204</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>6301</v>
       </c>
@@ -6186,7 +6231,7 @@
         <v>6304</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>6401</v>
       </c>
@@ -6200,7 +6245,7 @@
         <v>6404</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>6501</v>
       </c>
@@ -6214,7 +6259,7 @@
         <v>6504</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>6601</v>
       </c>
@@ -6228,7 +6273,7 @@
         <v>6604</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>6701</v>
       </c>
@@ -6242,7 +6287,7 @@
         <v>6704</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>6801</v>
       </c>
@@ -6256,7 +6301,7 @@
         <v>6804</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>6901</v>
       </c>
@@ -6270,7 +6315,7 @@
         <v>6904</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>7001</v>
       </c>
@@ -6284,7 +6329,7 @@
         <v>7004</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>7201</v>
       </c>
@@ -6298,7 +6343,7 @@
         <v>7204</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>7501</v>
       </c>
@@ -6312,7 +6357,7 @@
         <v>7504</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>7601</v>
       </c>
@@ -6326,7 +6371,7 @@
         <v>7604</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>8001</v>
       </c>
@@ -6340,7 +6385,7 @@
         <v>8004</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>9201</v>
       </c>
@@ -6354,7 +6399,7 @@
         <v>9204</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>9301</v>
       </c>
@@ -6368,7 +6413,7 @@
         <v>9304</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>9401</v>
       </c>
@@ -6382,7 +6427,7 @@
         <v>9404</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>9501</v>
       </c>
@@ -6396,7 +6441,7 @@
         <v>9504</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>9601</v>
       </c>
@@ -6410,7 +6455,7 @@
         <v>9604</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>9701</v>
       </c>
@@ -6424,7 +6469,7 @@
         <v>9704</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>9801</v>
       </c>
@@ -6438,7 +6483,7 @@
         <v>9804</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>9901</v>
       </c>
@@ -6452,7 +6497,7 @@
         <v>9904</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>10001</v>
       </c>
@@ -6466,7 +6511,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>10101</v>
       </c>
@@ -6480,7 +6525,7 @@
         <v>10104</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>10201</v>
       </c>
@@ -6494,7 +6539,7 @@
         <v>10204</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>10301</v>
       </c>
@@ -6508,7 +6553,7 @@
         <v>10304</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>10401</v>
       </c>
@@ -6522,7 +6567,7 @@
         <v>10404</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>10501</v>
       </c>
@@ -6536,7 +6581,7 @@
         <v>10504</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>10601</v>
       </c>
@@ -6550,7 +6595,7 @@
         <v>10604</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>10701</v>
       </c>
@@ -6564,7 +6609,7 @@
         <v>10704</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>10801</v>
       </c>
@@ -6578,7 +6623,7 @@
         <v>10804</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>10901</v>
       </c>
@@ -6592,7 +6637,7 @@
         <v>10904</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>11001</v>
       </c>
@@ -6606,7 +6651,7 @@
         <v>11004</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>11101</v>
       </c>
@@ -6620,7 +6665,7 @@
         <v>11104</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>11201</v>
       </c>
@@ -6634,7 +6679,7 @@
         <v>11204</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>11301</v>
       </c>
@@ -6648,7 +6693,7 @@
         <v>11304</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>11401</v>
       </c>
@@ -6662,7 +6707,7 @@
         <v>11404</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>11501</v>
       </c>
@@ -6676,7 +6721,7 @@
         <v>11504</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>11801</v>
       </c>
@@ -6690,7 +6735,7 @@
         <v>11804</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>11901</v>
       </c>
@@ -6704,7 +6749,7 @@
         <v>11904</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>12001</v>
       </c>
@@ -6718,7 +6763,7 @@
         <v>12004</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>12101</v>
       </c>
@@ -6732,7 +6777,7 @@
         <v>12104</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>12201</v>
       </c>
@@ -6746,7 +6791,7 @@
         <v>12204</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>12301</v>
       </c>
@@ -6760,7 +6805,7 @@
         <v>12304</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>12401</v>
       </c>
@@ -6774,7 +6819,7 @@
         <v>12404</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>12501</v>
       </c>
@@ -6788,7 +6833,7 @@
         <v>12504</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>12601</v>
       </c>
@@ -6802,7 +6847,7 @@
         <v>12604</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>12701</v>
       </c>
@@ -6816,7 +6861,7 @@
         <v>12704</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>12801</v>
       </c>
@@ -6830,7 +6875,7 @@
         <v>12804</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>12901</v>
       </c>
@@ -6844,7 +6889,7 @@
         <v>12904</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>13001</v>
       </c>
@@ -6858,7 +6903,7 @@
         <v>13004</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>13101</v>
       </c>
@@ -6880,16 +6925,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" s="33" customFormat="1" ht="16.5">
+    <row r="1" spans="1:11" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>103</v>
       </c>
@@ -6924,7 +6969,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="16.5">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
         <v>99</v>
       </c>
@@ -6959,7 +7004,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="16.5">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="29">
         <v>99</v>
       </c>
@@ -6994,7 +7039,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="30">
         <v>101</v>
       </c>
@@ -7029,7 +7074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
         <v>102</v>
       </c>
@@ -7064,7 +7109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="30">
         <v>103</v>
       </c>
@@ -7099,7 +7144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="7" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="30">
         <v>201</v>
       </c>
@@ -7134,7 +7179,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="30">
         <v>202</v>
       </c>
@@ -7169,7 +7214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="30">
         <v>203</v>
       </c>
@@ -7204,7 +7249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="30">
         <v>204</v>
       </c>
@@ -7239,7 +7284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="30">
         <v>301</v>
       </c>
@@ -7274,7 +7319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="38" customFormat="1" ht="16.5">
+    <row r="12" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="36">
         <v>401</v>
       </c>
@@ -7309,7 +7354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="38" customFormat="1" ht="16.5">
+    <row r="13" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="36">
         <v>402</v>
       </c>
@@ -7344,7 +7389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="38" customFormat="1" ht="16.5">
+    <row r="14" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="36">
         <v>403</v>
       </c>
@@ -7379,7 +7424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="38" customFormat="1" ht="16.5">
+    <row r="15" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="36">
         <v>404</v>
       </c>
@@ -7414,7 +7459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="38" customFormat="1" ht="16.5">
+    <row r="16" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <v>405</v>
       </c>
@@ -7449,7 +7494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="38" customFormat="1" ht="16.5">
+    <row r="17" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="36">
         <v>406</v>
       </c>
@@ -7484,7 +7529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="38" customFormat="1" ht="16.5">
+    <row r="18" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="36">
         <v>407</v>
       </c>
@@ -7519,7 +7564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="38" customFormat="1" ht="16.5">
+    <row r="19" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="36">
         <v>408</v>
       </c>
@@ -7554,7 +7599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="38" customFormat="1" ht="16.5">
+    <row r="20" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="36">
         <v>409</v>
       </c>
@@ -7589,7 +7634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="21" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="30">
         <v>410</v>
       </c>
@@ -7624,7 +7669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="22" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="30">
         <v>411</v>
       </c>
@@ -7659,7 +7704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="23" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="30">
         <v>412</v>
       </c>
@@ -7694,7 +7739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="24" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="30">
         <v>413</v>
       </c>
@@ -7729,7 +7774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="25" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="30">
         <v>414</v>
       </c>
@@ -7764,7 +7809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="26" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="30">
         <v>415</v>
       </c>
@@ -7799,7 +7844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="27" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="30">
         <v>416</v>
       </c>
@@ -7834,7 +7879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="28" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="30">
         <v>417</v>
       </c>
@@ -7869,7 +7914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="29" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="30">
         <v>418</v>
       </c>
@@ -7904,7 +7949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="30" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="30">
         <v>419</v>
       </c>
@@ -7941,7 +7986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="31" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="30">
         <v>420</v>
       </c>
@@ -7978,7 +8023,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="32" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="30">
         <v>421</v>
       </c>
@@ -8015,7 +8060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="33" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="30">
         <v>422</v>
       </c>
@@ -8052,7 +8097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="34" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="30">
         <v>423</v>
       </c>
@@ -8089,7 +8134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="35" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="30">
         <v>424</v>
       </c>
@@ -8126,7 +8171,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="36" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="30">
         <v>425</v>
       </c>
@@ -8163,7 +8208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="37" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="30">
         <v>426</v>
       </c>
@@ -8200,7 +8245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="38" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="30">
         <v>427</v>
       </c>
@@ -8235,7 +8280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="39" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="30">
         <v>428</v>
       </c>
@@ -8270,7 +8315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="40" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="30">
         <v>429</v>
       </c>
@@ -8305,7 +8350,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="41" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="30">
         <v>430</v>
       </c>
@@ -8340,7 +8385,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="42" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="30">
         <v>431</v>
       </c>
@@ -8375,7 +8420,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="43" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="30">
         <v>432</v>
       </c>
@@ -8410,7 +8455,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="44" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="30">
         <v>433</v>
       </c>
@@ -8445,7 +8490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="45" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="30">
         <v>434</v>
       </c>
@@ -8480,7 +8525,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="46" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="30">
         <v>435</v>
       </c>
@@ -8515,7 +8560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="47" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="30">
         <v>436</v>
       </c>
@@ -8550,7 +8595,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="48" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="30">
         <v>437</v>
       </c>
@@ -8585,7 +8630,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="42" customFormat="1" ht="16.5">
+    <row r="49" spans="1:11" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>438</v>
       </c>
@@ -8620,7 +8665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="50" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="30">
         <v>439</v>
       </c>
@@ -8655,7 +8700,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="51" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="30">
         <v>440</v>
       </c>
@@ -8690,7 +8735,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="52" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="30">
         <v>441</v>
       </c>
@@ -8725,7 +8770,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="53" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="30">
         <v>442</v>
       </c>
@@ -8760,7 +8805,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="42" customFormat="1" ht="16.5">
+    <row r="54" spans="1:11" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>443</v>
       </c>
@@ -8795,7 +8840,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="55" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="30">
         <v>444</v>
       </c>
@@ -8830,7 +8875,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="56" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="30">
         <v>445</v>
       </c>
@@ -8865,7 +8910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="57" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="30">
         <v>446</v>
       </c>
@@ -8900,7 +8945,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="58" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="30">
         <v>447</v>
       </c>
@@ -8935,7 +8980,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="59" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="30">
         <v>448</v>
       </c>
@@ -8970,7 +9015,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="60" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="30">
         <v>501</v>
       </c>
@@ -9005,7 +9050,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="61" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="30">
         <v>502</v>
       </c>
@@ -9040,7 +9085,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="22" customFormat="1" ht="16.5">
+    <row r="62" spans="1:11" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="31">
         <v>509</v>
       </c>
@@ -9075,7 +9120,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="63" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="30">
         <v>601</v>
       </c>
@@ -9112,7 +9157,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="64" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="30">
         <v>602</v>
       </c>
@@ -9149,7 +9194,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="65" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="30">
         <v>603</v>
       </c>
@@ -9184,7 +9229,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="66" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="30">
         <v>701</v>
       </c>
@@ -9221,7 +9266,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="67" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="30">
         <v>702</v>
       </c>
@@ -9258,7 +9303,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="68" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="30">
         <v>801</v>
       </c>
@@ -9293,7 +9338,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="69" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="30">
         <v>802</v>
       </c>
@@ -9328,7 +9373,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="70" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="30">
         <v>901</v>
       </c>
@@ -9365,7 +9410,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="71" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="30">
         <v>902</v>
       </c>
@@ -9400,7 +9445,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="72" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="30">
         <v>1001</v>
       </c>
@@ -9435,7 +9480,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="73" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="30">
         <v>1002</v>
       </c>
@@ -9470,7 +9515,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="74" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="30">
         <v>1004</v>
       </c>
@@ -9505,7 +9550,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="75" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="30">
         <v>1101</v>
       </c>
@@ -9540,7 +9585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="30" customFormat="1" ht="16.5">
+    <row r="76" spans="1:11" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="30">
         <v>1102</v>
       </c>
@@ -9575,7 +9620,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="77" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="30">
         <v>1201</v>
       </c>
@@ -9610,7 +9655,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="78" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="30">
         <v>1301</v>
       </c>
@@ -9645,7 +9690,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="79" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="30">
         <v>1302</v>
       </c>
@@ -9680,7 +9725,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="80" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="30">
         <v>1307</v>
       </c>
@@ -9715,7 +9760,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="81" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="30">
         <v>1308</v>
       </c>
@@ -9750,7 +9795,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="82" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="30">
         <v>1309</v>
       </c>
@@ -9785,7 +9830,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="83" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="30">
         <v>1310</v>
       </c>
@@ -9820,7 +9865,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="84" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="30">
         <v>1311</v>
       </c>
@@ -9855,7 +9900,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="85" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="30">
         <v>1312</v>
       </c>
@@ -9890,7 +9935,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="86" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="30">
         <v>1313</v>
       </c>
@@ -9925,7 +9970,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" ht="33">
+    <row r="87" spans="1:11" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A87" s="30">
         <v>1314</v>
       </c>
@@ -9960,7 +10005,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="88" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="30">
         <v>1315</v>
       </c>
@@ -9995,7 +10040,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="89" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="30">
         <v>1316</v>
       </c>
@@ -10030,7 +10075,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="90" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="30">
         <v>1317</v>
       </c>
@@ -10065,7 +10110,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="91" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="30">
         <v>1318</v>
       </c>
@@ -10100,7 +10145,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="92" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="30">
         <v>1319</v>
       </c>
@@ -10135,7 +10180,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="93" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="30">
         <v>1320</v>
       </c>
@@ -10170,7 +10215,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="94" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="30">
         <v>1321</v>
       </c>
@@ -10205,7 +10250,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="95" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="30">
         <v>1322</v>
       </c>
@@ -10240,7 +10285,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="96" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="30">
         <v>1303</v>
       </c>
@@ -10275,7 +10320,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="97" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="30">
         <v>1304</v>
       </c>
@@ -10310,7 +10355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="42" customFormat="1" ht="16.5">
+    <row r="98" spans="1:11" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>1305</v>
       </c>
@@ -10345,7 +10390,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="8" customFormat="1" ht="33">
+    <row r="99" spans="1:11" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A99" s="30">
         <v>1306</v>
       </c>
@@ -10380,7 +10425,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="100" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="30">
         <v>1401</v>
       </c>
@@ -10415,7 +10460,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="42" customFormat="1" ht="16.5">
+    <row r="101" spans="1:11" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>1403</v>
       </c>
@@ -10452,7 +10497,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="102" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="30">
         <v>1601</v>
       </c>
@@ -10487,7 +10532,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="103" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="30">
         <v>1602</v>
       </c>
@@ -10522,7 +10567,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="104" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="30">
         <v>1603</v>
       </c>
@@ -10557,7 +10602,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="105" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="30">
         <v>1604</v>
       </c>
@@ -10592,7 +10637,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="106" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A106" s="30">
         <v>1605</v>
       </c>
@@ -10627,7 +10672,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="107" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A107" s="30">
         <v>1701</v>
       </c>
@@ -10662,7 +10707,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="108" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A108" s="30">
         <v>1801</v>
       </c>
@@ -10697,7 +10742,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="109" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A109" s="30">
         <v>1802</v>
       </c>
@@ -10732,7 +10777,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="110" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A110" s="30">
         <v>1803</v>
       </c>
@@ -10767,7 +10812,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="111" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A111" s="30">
         <v>1804</v>
       </c>
@@ -10802,7 +10847,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="112" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A112" s="30">
         <v>1805</v>
       </c>
@@ -10837,7 +10882,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="113" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A113" s="30">
         <v>1806</v>
       </c>
@@ -10872,7 +10917,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="114" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A114" s="30">
         <v>1807</v>
       </c>
@@ -10907,7 +10952,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="8" customFormat="1" ht="16.5">
+    <row r="115" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A115" s="30">
         <v>1808</v>
       </c>

--- a/res/source/cfg_building_new.xlsx
+++ b/res/source/cfg_building_new.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DB7696-17A5-444C-8206-72C1E4AE04FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E02C6B4-6658-46CA-ACDC-EB0F4F2C6E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39705" yWindow="2880" windowWidth="16875" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36660" yWindow="2115" windowWidth="16875" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="301">
   <si>
     <t>建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1088,10 +1088,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>building_type_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name_j</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1181,6 +1177,37 @@
   </si>
   <si>
     <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_type_J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>building_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ype</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1362,7 +1389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1510,6 +1537,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1885,7 +1915,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:E1"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1917,7 +1947,7 @@
         <v>272</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>205</v>
@@ -2205,8 +2235,8 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
-        <v>99</v>
+      <c r="A6" s="57" t="s">
+        <v>300</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>96</v>
@@ -2277,73 +2307,73 @@
     </row>
     <row r="7" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="C7" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="D7" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="E7" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="G7" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="H7" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="I7" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="J7" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="K7" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="M7" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="N7" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="O7" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="O7" s="33" t="s">
+      <c r="P7" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="Q7" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="Q7" s="33" t="s">
+      <c r="R7" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="R7" s="33" t="s">
+      <c r="S7" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="S7" s="33" t="s">
+      <c r="T7" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="T7" s="33" t="s">
+      <c r="U7" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="U7" s="33" t="s">
+      <c r="V7" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="V7" s="33" t="s">
+      <c r="W7" s="33" t="s">
         <v>297</v>
-      </c>
-      <c r="W7" s="33" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">

--- a/res/source/cfg_building_new.xlsx
+++ b/res/source/cfg_building_new.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E02C6B4-6658-46CA-ACDC-EB0F4F2C6E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE861FD-785B-44C4-BAA8-C68C6B086216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36660" yWindow="2115" windowWidth="16875" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="302">
   <si>
     <t>建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -858,10 +858,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boolean[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -874,10 +870,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint8[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>f2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -910,22 +902,6 @@
     <t>1,1,1</t>
   </si>
   <si>
-    <t>uint16[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float32[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试10</t>
   </si>
   <si>
@@ -1008,18 +984,6 @@
     <t>[1.3,7.22]</t>
   </si>
   <si>
-    <t>int8[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int16[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[哈哈,呵呵]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1066,10 +1030,6 @@
   </si>
   <si>
     <t>[哈哈,呵呵14]</t>
-  </si>
-  <si>
-    <t>string(20)[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CfgBuildingNew</t>
@@ -1208,6 +1168,50 @@
       </rPr>
       <t>ype</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]uint8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]uint16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]float32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8,2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1912,10 +1916,10 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1944,10 +1948,10 @@
         <v>204</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>205</v>
@@ -1997,31 +2001,31 @@
         <v>206</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P2" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="U2" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="28" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -2065,31 +2069,31 @@
         <v>206</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P3" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="R3" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="V3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -2100,13 +2104,13 @@
         <v>160</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>160</v>
@@ -2142,25 +2146,25 @@
         <v>160</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="T4" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="U4" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="V4" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="W4" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -2204,39 +2208,39 @@
         <v>189</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>207</v>
+        <v>291</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>211</v>
+        <v>292</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>222</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>223</v>
+        <v>294</v>
       </c>
       <c r="R5" s="33" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="S5" s="33" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="T5" s="33" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="U5" s="33" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="V5" s="33" t="s">
-        <v>225</v>
+        <v>299</v>
       </c>
       <c r="W5" s="33" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="57" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>96</v>
@@ -2275,105 +2279,105 @@
         <v>187</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P6" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="R6" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="S6" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="T6" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="U6" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="V6" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="W6" s="33" t="s">
         <v>228</v>
-      </c>
-      <c r="R6" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="S6" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="T6" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="U6" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="V6" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="W6" s="33" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B7" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L7" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="M7" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="N7" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="O7" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="P7" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="Q7" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="R7" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="S7" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="T7" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="U7" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="V7" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="W7" s="33" t="s">
         <v>287</v>
-      </c>
-      <c r="N7" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="O7" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="P7" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q7" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="R7" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="S7" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="T7" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="U7" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="V7" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="W7" s="33" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">
@@ -2417,34 +2421,34 @@
         <v>190</v>
       </c>
       <c r="N8" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O8" s="33" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="33" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="S8" s="33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="T8" s="33" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U8" s="33" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="V8" s="33" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="W8" s="33" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
@@ -2488,34 +2492,34 @@
         <v>191</v>
       </c>
       <c r="N9" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O9" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q9" s="33" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="S9" s="33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="T9" s="33" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U9" s="33" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="V9" s="33" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="W9" s="33" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
@@ -2559,34 +2563,34 @@
         <v>192</v>
       </c>
       <c r="N10" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O10" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="R10" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="S10" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="T10" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="U10" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="R10" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="S10" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="T10" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="U10" s="33" t="s">
-        <v>241</v>
-      </c>
       <c r="V10" s="33" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="W10" s="33" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
@@ -2630,34 +2634,34 @@
         <v>193</v>
       </c>
       <c r="N11" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O11" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="33" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="R11" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="S11" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="T11" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="U11" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="S11" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="T11" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="U11" s="33" t="s">
-        <v>242</v>
-      </c>
       <c r="V11" s="33" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="W11" s="33" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
@@ -2701,34 +2705,34 @@
         <v>194</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O12" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q12" s="33" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="S12" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="T12" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="U12" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="T12" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="U12" s="33" t="s">
-        <v>243</v>
-      </c>
       <c r="V12" s="33" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="W12" s="33" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
@@ -2772,34 +2776,34 @@
         <v>195</v>
       </c>
       <c r="N13" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O13" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="33" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="R13" s="33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="T13" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="U13" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="U13" s="33" t="s">
-        <v>244</v>
-      </c>
       <c r="V13" s="33" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="W13" s="33" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
@@ -2843,34 +2847,34 @@
         <v>196</v>
       </c>
       <c r="N14" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="33" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="S14" s="33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="T14" s="33" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U14" s="33" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="V14" s="33" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="W14" s="33" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
@@ -2914,34 +2918,34 @@
         <v>197</v>
       </c>
       <c r="N15" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O15" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q15" s="33" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="S15" s="33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="T15" s="33" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U15" s="33" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="V15" s="33" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="W15" s="33" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
@@ -2985,34 +2989,34 @@
         <v>198</v>
       </c>
       <c r="N16" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O16" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q16" s="33" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="R16" s="33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="S16" s="33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="T16" s="33" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U16" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="V16" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="V16" s="33" t="s">
+      <c r="W16" s="33" t="s">
         <v>256</v>
-      </c>
-      <c r="W16" s="33" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -3056,34 +3060,34 @@
         <v>199</v>
       </c>
       <c r="N17" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O17" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="33" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="R17" s="33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="S17" s="33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="T17" s="33" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U17" s="33" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="V17" s="33" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="W17" s="33" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -3127,34 +3131,34 @@
         <v>200</v>
       </c>
       <c r="N18" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="S18" s="33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="T18" s="33" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U18" s="33" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="V18" s="33" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="W18" s="33" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -3198,34 +3202,34 @@
         <v>201</v>
       </c>
       <c r="N19" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O19" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="33" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="S19" s="33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="T19" s="33" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U19" s="33" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="V19" s="33" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="W19" s="33" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -3269,34 +3273,34 @@
         <v>202</v>
       </c>
       <c r="N20" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O20" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P20" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q20" s="33" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="R20" s="33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="S20" s="33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="T20" s="33" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U20" s="33" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="V20" s="33" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="W20" s="33" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
@@ -3340,34 +3344,34 @@
         <v>203</v>
       </c>
       <c r="N21" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O21" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P21" s="33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q21" s="33" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="R21" s="33" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="S21" s="33" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="T21" s="33" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U21" s="33" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="V21" s="33" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="W21" s="33" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/res/source/cfg_building_new.xlsx
+++ b/res/source/cfg_building_new.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE861FD-785B-44C4-BAA8-C68C6B086216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CA98CA-A0C0-47AE-ACA5-3D6A4240FF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="ErrorTest" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="Const_常量表" sheetId="5" r:id="rId2"/>
+    <sheet name="ErrorTest" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data_Sheet1!#REF!</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="311">
   <si>
     <t>建筑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1214,12 +1215,48 @@
     <t>[8,2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ConstA</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试常量名</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量名</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量值</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量类型</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>clientfilename</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>serverfilename</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1306,6 +1343,12 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1915,7 +1958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
@@ -3382,11 +3425,208 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66171824-AD12-43D2-BDFC-77E833C05557}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4186,7 +4426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH131"/>
   <sheetViews>
@@ -6958,7 +7198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K115"/>
   <sheetViews>

--- a/res/source/cfg_building_new.xlsx
+++ b/res/source/cfg_building_new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CA98CA-A0C0-47AE-ACA5-3D6A4240FF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EA645F-E355-4F8A-B5F5-0A4DDA3EDB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,532 +31,532 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="322">
   <si>
     <t>建筑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>建筑key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>民居</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>骑士公寓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>贵族府邸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>农政省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>监政省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>军政省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>税收站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>农田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>菜地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>养牛场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>棉田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>橄榄林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>葡萄田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>养羊场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>桑树林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>养马场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>粮食农场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>蔬菜农场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>养牛营地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>棉麻农场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>橄榄农场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>葡萄农场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>畜牧营地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>养蚕营地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>马厩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>挖泥营地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>伐木场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>集沙场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>采石营地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>铁矿场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>银矿场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>玉矿场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>淘金场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>窑工坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>衣物工坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>制油工坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>酿酒工坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>家具工坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>皮具工坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>制丝工坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>玻璃工坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>石刻工坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>炼铁工坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>炼银工坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>玉矿工坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>炼金工坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>精纺厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>铁器工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>银器工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>玉器工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>首饰工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>珠宝工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>铠甲工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>战车工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>生活用品市场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>高级商品市场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>舶来品市场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>水井</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>喷泉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>蓄水池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>消防站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>巡逻站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>医务所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>医院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>理发店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>浴场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>学校</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>图书馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>裁决会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>司法集会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>审判广场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>音乐厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>戏院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>角斗场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>体育场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>赛车场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>募兵所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>军团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大使馆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>兵器研究所</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>桥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>花圃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>泥矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>铁矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>玉矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>金矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>树林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>朱庇特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>注释列</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>校场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>武器工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>建筑key指的是对应类型的1级建筑的ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>terrain_flags</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>type_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>building_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>石矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>贸易站</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>uint16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>layoutX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>uint8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>民兵营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>轻步营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>长枪营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>标枪营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>剑士营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>重步营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>弓箭营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>骑射营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>皇家骑射营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>轻骑营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>重骑营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>圣骑营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>近卫营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>弩车营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>战车营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>投石营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>攻城营</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>食品市场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>promotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>uint8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>是否可以升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0：代表不能升级
 1：代表可以升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>供需人口类型</t>
@@ -572,27 +572,27 @@
   </si>
   <si>
     <t>执政大厅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>门X坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>门Y坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>坐标从0开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gateX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gateY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>isDoor</t>
@@ -602,281 +602,281 @@
   </si>
   <si>
     <t>沙堆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>军械库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>银矿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>宽道路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>奢侈品市场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>戏院</t>
   </si>
   <si>
     <t>工业仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>农业仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CfgBuilding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>建筑描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>建筑名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cfg_building_s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cfg_building_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数据库输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>客户端输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>服务器输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cfg_building_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>float32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>uint16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>int8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>地形</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>int16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>有没有门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>建筑描述
 string(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>string(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>–32768</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>–32767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>错误</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>error</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>abc</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>uint16</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>"远方"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>建筑描述
 json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>desc1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>desc2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>desc3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>建筑描述
 string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"远方"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"民居"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"骑士公寓"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"贵族府邸"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"执政大厅"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"农政省"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"监政省"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"军政省"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"税收站"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"农田"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"菜地"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"养牛场"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"棉田"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"橄榄林"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>导出配置：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>${A}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>测试1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[true,false]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>测试2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>f2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[1,2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>测试3</t>
@@ -943,7 +943,7 @@
   </si>
   <si>
     <t>[1.3,7.9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[1.3,7.10]</t>
@@ -986,15 +986,15 @@
   </si>
   <si>
     <t>[哈哈,呵呵]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[哈哈,呵呵1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[哈哈,呵呵2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[哈哈,呵呵3]</t>
@@ -1034,115 +1034,115 @@
   </si>
   <si>
     <t>CfgBuildingNew</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0,0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>name_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>promotion_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>layoutX_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>type_idx_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gateX_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>gateY_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>terrain_flags_j</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>supply_population_type_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>isDoor_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>desc1_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>desc2_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>desc3_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>f1_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>f2_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>f3_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>f4_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>f5_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>f6_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>f7_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>f8_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>f9_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>f10_j</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>building</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>building_type_J</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1169,99 +1169,281 @@
       </rPr>
       <t>ype</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[]bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[]uint8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[]uint16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[]uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[]int8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[]int16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[]int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[]float32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[]string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[]string(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>[8,2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConstA</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>int16</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>测试常量名</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>常量名</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>常量值</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>常量类型</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>clientfilename</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>serverfilename</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Const2</t>
+  </si>
+  <si>
+    <r>
+      <t>Const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Const4</t>
+  </si>
+  <si>
+    <r>
+      <t>Const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Const6</t>
+  </si>
+  <si>
+    <r>
+      <t>Const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Const8</t>
+  </si>
+  <si>
+    <r>
+      <t>Const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>Const10</t>
+  </si>
+  <si>
+    <r>
+      <t>Const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1432,140 +1614,140 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1574,7 +1756,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1583,12 +1765,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3418,7 +3601,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3440,182 +3623,182 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" t="s">
         <v>309</v>
-      </c>
-      <c r="B1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" t="s">
         <v>305</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>306</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>307</v>
       </c>
-      <c r="D2" t="s">
-        <v>308</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>302</v>
+      <c r="A3" s="58" t="s">
+        <v>310</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" t="s">
         <v>303</v>
       </c>
-      <c r="D3" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="A4" s="58" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>302</v>
       </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>303</v>
       </c>
-      <c r="D4" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="A5" s="58" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>302</v>
       </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>303</v>
       </c>
-      <c r="D5" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="A6" s="58" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>302</v>
       </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D7" t="s">
         <v>303</v>
       </c>
-      <c r="D6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>302</v>
       </c>
-      <c r="B7">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
         <v>303</v>
       </c>
-      <c r="D7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="58" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>302</v>
       </c>
-      <c r="B8">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D9" t="s">
         <v>303</v>
       </c>
-      <c r="D8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="58" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>302</v>
       </c>
-      <c r="B9">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
         <v>303</v>
       </c>
-      <c r="D9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="58" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>302</v>
       </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
         <v>303</v>
       </c>
-      <c r="D10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>302</v>
       </c>
-      <c r="B11">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
         <v>303</v>
       </c>
-      <c r="D11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="58" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>302</v>
       </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D13" t="s">
         <v>303</v>
       </c>
-      <c r="D12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>302</v>
-      </c>
-      <c r="B13">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D13" t="s">
-        <v>304</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4421,7 +4604,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7192,7 +7375,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -11262,7 +11445,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/res/source/cfg_building_new.xlsx
+++ b/res/source/cfg_building_new.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EA645F-E355-4F8A-B5F5-0A4DDA3EDB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BEC6C3-F231-4348-9A36-500CBACE0CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="323">
   <si>
     <t>建筑</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1240,14 +1240,6 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>clientfilename</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>serverfilename</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Const</t>
     </r>
@@ -1423,6 +1415,44 @@
         <scheme val="minor"/>
       </rPr>
       <t>32</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onstfilec</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onstfiles</t>
     </r>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
@@ -3612,7 +3642,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3622,11 +3652,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1" t="s">
-        <v>309</v>
+      <c r="A1" s="58" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -3645,7 +3675,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="58" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -3659,7 +3689,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="58" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B4">
         <v>16</v>
@@ -3673,13 +3703,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="58" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B5">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="D5" t="s">
         <v>303</v>
@@ -3687,13 +3717,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="58" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B6">
         <v>18</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D6" t="s">
         <v>303</v>
@@ -3701,7 +3731,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="58" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B7">
         <v>19</v>
@@ -3715,7 +3745,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="58" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -3729,7 +3759,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="58" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B9">
         <v>21</v>
@@ -3743,7 +3773,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="58" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B10">
         <v>22</v>
@@ -3757,7 +3787,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="58" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B11">
         <v>23</v>
@@ -3771,7 +3801,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="58" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B12">
         <v>24</v>
@@ -3785,7 +3815,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="58" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B13">
         <v>25</v>

--- a/res/source/cfg_building_new.xlsx
+++ b/res/source/cfg_building_new.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BEC6C3-F231-4348-9A36-500CBACE0CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Const_常量表" sheetId="5" r:id="rId2"/>
-    <sheet name="ErrorTest" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
+    <sheet name="ErrorTest" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data_Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,532 +29,532 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="302">
   <si>
     <t>建筑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建筑key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>民居</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>骑士公寓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贵族府邸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>农政省</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>监政省</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>军政省</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>税收站</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>农田</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>菜地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>养牛场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>棉田</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>橄榄林</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>葡萄田</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>养羊场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桑树林</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>养马场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>粮食农场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蔬菜农场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>养牛营地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>棉麻农场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>橄榄农场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>葡萄农场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>畜牧营地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>养蚕营地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>马厩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>挖泥营地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>伐木场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>集沙场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>采石营地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>铁矿场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>银矿场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玉矿场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>淘金场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>窑工坊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>衣物工坊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>制油工坊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>酿酒工坊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>家具工坊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>皮具工坊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>制丝工坊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玻璃工坊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>石刻工坊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>炼铁工坊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>炼银工坊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玉矿工坊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>炼金工坊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>精纺厂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>铁器工厂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>银器工厂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玉器工厂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首饰工厂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>珠宝工厂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>铠甲工厂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>战车工厂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生活用品市场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高级商品市场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>舶来品市场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>水井</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>喷泉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蓄水池</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>消防站</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>巡逻站</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>医务所</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>医院</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>理发店</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>浴场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学校</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图书馆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>裁决会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>司法集会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>审判广场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>音乐厅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>戏院</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>角斗场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>体育场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>赛车场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>募兵所</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>军团</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大使馆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>兵器研究所</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桥</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>花圃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>树</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>泥矿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>铁矿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玉矿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金矿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>树林</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>朱庇特</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注释列</t>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>校场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>武器工厂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建筑key指的是对应类型的1级建筑的ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>terrain_flags</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>type_idx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>building_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>石矿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贸易站</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uint32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uint16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>layoutX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uint8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>民兵营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>轻步营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>长枪营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标枪营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>剑士营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>重步营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>弓箭营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>骑射营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>皇家骑射营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>轻骑营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>重骑营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>圣骑营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>近卫营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>弩车营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>战车营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>投石营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>攻城营</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>食品市场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>promotion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uint8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否可以升级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0：代表不能升级
 1：代表可以升级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
     <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>供需人口类型</t>
@@ -572,27 +570,27 @@
   </si>
   <si>
     <t>执政大厅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>门X坐标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>门Y坐标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>坐标从0开始</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gateX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gateY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isDoor</t>
@@ -602,281 +600,281 @@
   </si>
   <si>
     <t>沙堆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>军械库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>银矿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>宽道路</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>奢侈品市场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>戏院</t>
   </si>
   <si>
     <t>工业仓库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>农业仓库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CfgBuilding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建筑描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建筑名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cfg_building_s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cfg_building_c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据库输出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>客户端输出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>服务器输出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cfg_building_d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,1,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>float32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>规格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uint16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地形</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>int16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>有没有门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建筑描述
 string(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>–32768</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>–32767</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>错误</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>error</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>abc</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>uint16</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>"远方"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建筑描述
 json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>desc1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>desc2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>desc3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建筑描述
 string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"远方"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"民居"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"骑士公寓"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"贵族府邸"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"执政大厅"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"农政省"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"监政省"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"军政省"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"税收站"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"农田"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"菜地"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"养牛场"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"棉田"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"name":"橄榄林"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>导出配置：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${A}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>f1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[true,false]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>f2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[1,2]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试3</t>
@@ -943,7 +941,7 @@
   </si>
   <si>
     <t>[1.3,7.9]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[1.3,7.10]</t>
@@ -986,15 +984,15 @@
   </si>
   <si>
     <t>[哈哈,呵呵]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[哈哈,呵呵1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[哈哈,呵呵2]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[哈哈,呵呵3]</t>
@@ -1034,115 +1032,115 @@
   </si>
   <si>
     <t>CfgBuildingNew</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,1,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0,0,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>name_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>promotion_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>layoutX_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>type_idx_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gateX_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gateY_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>terrain_flags_j</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>supply_population_type_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>isDoor_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>desc1_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>desc2_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>desc3_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>f1_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>f2_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>f3_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>f4_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>f5_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>f6_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>f7_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>f8_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>f9_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>f10_j</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>building</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>building_type_J</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1164,316 +1162,69 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ype</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[]bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[]uint8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[]uint16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[]uint32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[]int8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[]int16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[]int32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[]float32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[]string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[]string(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[8,2]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int16</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试常量名</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>常量名</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>常量值</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>常量类型</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>注释</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Const</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Const2</t>
-  </si>
-  <si>
-    <r>
-      <t>Const</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>Const4</t>
-  </si>
-  <si>
-    <r>
-      <t>Const</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>Const6</t>
-  </si>
-  <si>
-    <r>
-      <t>Const</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>Const8</t>
-  </si>
-  <si>
-    <r>
-      <t>Const</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>Const10</t>
-  </si>
-  <si>
-    <r>
-      <t>Const</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>32</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onstfilec</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>onstfiles</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1555,12 +1306,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1644,140 +1389,140 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1786,7 +1531,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1795,17 +1540,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1832,7 +1576,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1849,7 +1593,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1891,7 +1635,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1923,27 +1667,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1975,24 +1701,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2168,17 +1876,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.25" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="8" bestFit="1" customWidth="1"/>
@@ -2199,7 +1907,7 @@
     <col min="24" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23">
       <c r="A1" s="8" t="s">
         <v>204</v>
       </c>
@@ -2213,7 +1921,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23">
       <c r="A2" s="25" t="s">
         <v>92</v>
       </c>
@@ -2284,7 +1992,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="28" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" s="28" customFormat="1" ht="66">
       <c r="A3" s="27" t="s">
         <v>91</v>
       </c>
@@ -2352,7 +2060,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23">
       <c r="A4" s="29" t="s">
         <v>160</v>
       </c>
@@ -2423,7 +2131,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" s="33" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>103</v>
       </c>
@@ -2494,7 +2202,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" s="33" customFormat="1">
       <c r="A6" s="57" t="s">
         <v>290</v>
       </c>
@@ -2565,7 +2273,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" s="33" customFormat="1">
       <c r="A7" s="29" t="s">
         <v>289</v>
       </c>
@@ -2636,7 +2344,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" s="33" customFormat="1">
       <c r="A8" s="29">
         <v>99</v>
       </c>
@@ -2707,7 +2415,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="17.25">
       <c r="A9" s="30">
         <v>101</v>
       </c>
@@ -2778,7 +2486,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="17.25">
       <c r="A10" s="30">
         <v>102</v>
       </c>
@@ -2849,7 +2557,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" ht="17.25">
       <c r="A11" s="30">
         <v>103</v>
       </c>
@@ -2920,7 +2628,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" ht="17.25">
       <c r="A12" s="30">
         <v>201</v>
       </c>
@@ -2991,7 +2699,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" ht="17.25">
       <c r="A13" s="30">
         <v>202</v>
       </c>
@@ -3062,7 +2770,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" ht="17.25">
       <c r="A14" s="30">
         <v>203</v>
       </c>
@@ -3133,7 +2841,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" ht="17.25">
       <c r="A15" s="30">
         <v>204</v>
       </c>
@@ -3204,7 +2912,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" ht="17.25">
       <c r="A16" s="30">
         <v>301</v>
       </c>
@@ -3275,7 +2983,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" s="38" customFormat="1" ht="17.25">
       <c r="A17" s="36">
         <v>401</v>
       </c>
@@ -3346,7 +3054,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" s="38" customFormat="1" ht="17.25">
       <c r="A18" s="36">
         <v>402</v>
       </c>
@@ -3417,7 +3125,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" s="38" customFormat="1" ht="17.25">
       <c r="A19" s="36">
         <v>403</v>
       </c>
@@ -3488,7 +3196,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" s="38" customFormat="1" ht="17.25">
       <c r="A20" s="36">
         <v>404</v>
       </c>
@@ -3559,7 +3267,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="1:23" s="38" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" s="38" customFormat="1" ht="17.25">
       <c r="A21" s="36">
         <v>405</v>
       </c>
@@ -3631,218 +3339,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66171824-AD12-43D2-BDFC-77E833C05557}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="58" t="s">
-        <v>308</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="58" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="B5">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>320</v>
-      </c>
-      <c r="D5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="58" t="s">
-        <v>311</v>
-      </c>
-      <c r="B6">
-        <v>18</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>319</v>
-      </c>
-      <c r="D6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="58" t="s">
-        <v>312</v>
-      </c>
-      <c r="B7">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>302</v>
-      </c>
-      <c r="D7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="58" t="s">
-        <v>313</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>302</v>
-      </c>
-      <c r="D8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="B9">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>302</v>
-      </c>
-      <c r="D9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="B10">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="B11">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="58" t="s">
-        <v>317</v>
-      </c>
-      <c r="B12">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="B13">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="8" bestFit="1" customWidth="1"/>
@@ -3859,7 +3370,7 @@
     <col min="13" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>162</v>
       </c>
@@ -3874,7 +3385,7 @@
       <c r="G1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>163</v>
       </c>
@@ -3888,7 +3399,7 @@
       <c r="G2" s="4"/>
       <c r="L2" s="23"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>161</v>
       </c>
@@ -3903,7 +3414,7 @@
       <c r="G3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>153</v>
       </c>
@@ -3914,7 +3425,7 @@
       <c r="G4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="25" t="s">
         <v>92</v>
       </c>
@@ -3952,7 +3463,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="28" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="28" customFormat="1" ht="51" customHeight="1">
       <c r="A6" s="27" t="s">
         <v>91</v>
       </c>
@@ -3987,7 +3498,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="29" t="s">
         <v>160</v>
       </c>
@@ -4025,7 +3536,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="33" customFormat="1">
       <c r="A8" s="29" t="s">
         <v>103</v>
       </c>
@@ -4063,7 +3574,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="33" customFormat="1">
       <c r="A9" s="29" t="s">
         <v>99</v>
       </c>
@@ -4101,7 +3612,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="33" customFormat="1">
       <c r="A10" s="29">
         <v>99</v>
       </c>
@@ -4139,7 +3650,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="30">
         <v>101</v>
       </c>
@@ -4177,7 +3688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="30">
         <v>102</v>
       </c>
@@ -4215,7 +3726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="30">
         <v>103</v>
       </c>
@@ -4253,7 +3764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="30">
         <v>201</v>
       </c>
@@ -4291,7 +3802,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="30">
         <v>202</v>
       </c>
@@ -4329,7 +3840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="30">
         <v>203</v>
       </c>
@@ -4367,7 +3878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="30">
         <v>204</v>
       </c>
@@ -4405,7 +3916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="30">
         <v>301</v>
       </c>
@@ -4443,7 +3954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="38" customFormat="1">
       <c r="A19" s="36">
         <v>401</v>
       </c>
@@ -4481,7 +3992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="38" customFormat="1">
       <c r="A20" s="36">
         <v>402</v>
       </c>
@@ -4519,7 +4030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="38" customFormat="1">
       <c r="A21" s="36">
         <v>403</v>
       </c>
@@ -4557,7 +4068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="38" customFormat="1">
       <c r="A22" s="36">
         <v>404</v>
       </c>
@@ -4595,7 +4106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="38" customFormat="1">
       <c r="A23" s="36">
         <v>405</v>
       </c>
@@ -4634,22 +4145,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH131"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A131" sqref="A19:D131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:34" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="18" customFormat="1" ht="16.5">
       <c r="A1" s="16">
         <v>1403</v>
       </c>
@@ -4755,7 +4266,7 @@
       </c>
       <c r="AH1" s="20"/>
     </row>
-    <row r="2" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" s="5" customFormat="1" ht="16.5">
       <c r="A2" s="1">
         <v>1501</v>
       </c>
@@ -4861,7 +4372,7 @@
       </c>
       <c r="AH2"/>
     </row>
-    <row r="3" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" s="5" customFormat="1" ht="16.5">
       <c r="A3" s="1">
         <v>1502</v>
       </c>
@@ -4967,7 +4478,7 @@
       </c>
       <c r="AH3"/>
     </row>
-    <row r="4" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" s="5" customFormat="1" ht="16.5">
       <c r="A4" s="1">
         <v>1601</v>
       </c>
@@ -5072,8 +4583,8 @@
       </c>
       <c r="AH4"/>
     </row>
-    <row r="6" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" ht="18.75" customHeight="1"/>
+    <row r="10" spans="1:34" s="5" customFormat="1" ht="16.5">
       <c r="A10" s="1">
         <v>1005</v>
       </c>
@@ -5180,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" s="5" customFormat="1" ht="16.5">
       <c r="A11" s="1">
         <v>1006</v>
       </c>
@@ -5287,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="5" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" s="5" customFormat="1" ht="16.5" hidden="1">
       <c r="A12" s="1">
         <v>1101</v>
       </c>
@@ -5394,7 +4905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="5" customFormat="1" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" s="5" customFormat="1" ht="16.5" hidden="1">
       <c r="A13" s="1">
         <v>1102</v>
       </c>
@@ -5501,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" s="5" customFormat="1" ht="16.5">
       <c r="A14" s="1">
         <v>1103</v>
       </c>
@@ -5608,7 +5119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" s="5" customFormat="1" ht="16.5">
       <c r="A15" s="1">
         <v>1104</v>
       </c>
@@ -5715,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" s="5" customFormat="1" ht="16.5">
       <c r="A16" s="1">
         <v>1105</v>
       </c>
@@ -5822,7 +5333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>0</v>
       </c>
@@ -5836,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>1</v>
       </c>
@@ -5850,7 +5361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>101</v>
       </c>
@@ -5864,7 +5375,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>201</v>
       </c>
@@ -5878,7 +5389,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>301</v>
       </c>
@@ -5892,7 +5403,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>401</v>
       </c>
@@ -5906,7 +5417,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>501</v>
       </c>
@@ -5920,7 +5431,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>601</v>
       </c>
@@ -5934,7 +5445,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>701</v>
       </c>
@@ -5948,7 +5459,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>801</v>
       </c>
@@ -5962,7 +5473,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>901</v>
       </c>
@@ -5976,7 +5487,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>1001</v>
       </c>
@@ -5990,7 +5501,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>1101</v>
       </c>
@@ -6004,7 +5515,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>1201</v>
       </c>
@@ -6018,7 +5529,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>1301</v>
       </c>
@@ -6032,7 +5543,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>1401</v>
       </c>
@@ -6046,7 +5557,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>1501</v>
       </c>
@@ -6060,7 +5571,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>1601</v>
       </c>
@@ -6074,7 +5585,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>1701</v>
       </c>
@@ -6088,7 +5599,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>1801</v>
       </c>
@@ -6102,7 +5613,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>1901</v>
       </c>
@@ -6116,7 +5627,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>2001</v>
       </c>
@@ -6130,7 +5641,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>2101</v>
       </c>
@@ -6144,7 +5655,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>2201</v>
       </c>
@@ -6158,7 +5669,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>2301</v>
       </c>
@@ -6172,7 +5683,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>2401</v>
       </c>
@@ -6186,7 +5697,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>2501</v>
       </c>
@@ -6200,7 +5711,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>2601</v>
       </c>
@@ -6214,7 +5725,7 @@
         <v>2604</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>2701</v>
       </c>
@@ -6228,7 +5739,7 @@
         <v>2704</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>2801</v>
       </c>
@@ -6242,7 +5753,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>2901</v>
       </c>
@@ -6256,7 +5767,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>3001</v>
       </c>
@@ -6270,7 +5781,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>3101</v>
       </c>
@@ -6284,7 +5795,7 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>3201</v>
       </c>
@@ -6298,7 +5809,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>3401</v>
       </c>
@@ -6312,7 +5823,7 @@
         <v>3404</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>3501</v>
       </c>
@@ -6326,7 +5837,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>3601</v>
       </c>
@@ -6340,7 +5851,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>3701</v>
       </c>
@@ -6354,7 +5865,7 @@
         <v>3704</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>3801</v>
       </c>
@@ -6368,7 +5879,7 @@
         <v>3804</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>3901</v>
       </c>
@@ -6382,7 +5893,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>4001</v>
       </c>
@@ -6396,7 +5907,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>4101</v>
       </c>
@@ -6410,7 +5921,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>4201</v>
       </c>
@@ -6424,7 +5935,7 @@
         <v>4204</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>4301</v>
       </c>
@@ -6438,7 +5949,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>4401</v>
       </c>
@@ -6452,7 +5963,7 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>4501</v>
       </c>
@@ -6466,7 +5977,7 @@
         <v>4504</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>4601</v>
       </c>
@@ -6480,7 +5991,7 @@
         <v>4604</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>4701</v>
       </c>
@@ -6494,7 +6005,7 @@
         <v>4704</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>4801</v>
       </c>
@@ -6508,7 +6019,7 @@
         <v>4804</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>4901</v>
       </c>
@@ -6522,7 +6033,7 @@
         <v>4904</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>5001</v>
       </c>
@@ -6536,7 +6047,7 @@
         <v>5004</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>5101</v>
       </c>
@@ -6550,7 +6061,7 @@
         <v>5104</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>5201</v>
       </c>
@@ -6564,7 +6075,7 @@
         <v>5204</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>5301</v>
       </c>
@@ -6578,7 +6089,7 @@
         <v>5304</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>5401</v>
       </c>
@@ -6592,7 +6103,7 @@
         <v>5404</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>5501</v>
       </c>
@@ -6606,7 +6117,7 @@
         <v>5504</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>5601</v>
       </c>
@@ -6620,7 +6131,7 @@
         <v>5604</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>5701</v>
       </c>
@@ -6634,7 +6145,7 @@
         <v>5704</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>5801</v>
       </c>
@@ -6648,7 +6159,7 @@
         <v>5804</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>5901</v>
       </c>
@@ -6662,7 +6173,7 @@
         <v>5904</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>6001</v>
       </c>
@@ -6676,7 +6187,7 @@
         <v>6004</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>6101</v>
       </c>
@@ -6690,7 +6201,7 @@
         <v>6104</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>6201</v>
       </c>
@@ -6704,7 +6215,7 @@
         <v>6204</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>6301</v>
       </c>
@@ -6718,7 +6229,7 @@
         <v>6304</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>6401</v>
       </c>
@@ -6732,7 +6243,7 @@
         <v>6404</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>6501</v>
       </c>
@@ -6746,7 +6257,7 @@
         <v>6504</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>6601</v>
       </c>
@@ -6760,7 +6271,7 @@
         <v>6604</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>6701</v>
       </c>
@@ -6774,7 +6285,7 @@
         <v>6704</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>6801</v>
       </c>
@@ -6788,7 +6299,7 @@
         <v>6804</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>6901</v>
       </c>
@@ -6802,7 +6313,7 @@
         <v>6904</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>7001</v>
       </c>
@@ -6816,7 +6327,7 @@
         <v>7004</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>7201</v>
       </c>
@@ -6830,7 +6341,7 @@
         <v>7204</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>7501</v>
       </c>
@@ -6844,7 +6355,7 @@
         <v>7504</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>7601</v>
       </c>
@@ -6858,7 +6369,7 @@
         <v>7604</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>8001</v>
       </c>
@@ -6872,7 +6383,7 @@
         <v>8004</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>9201</v>
       </c>
@@ -6886,7 +6397,7 @@
         <v>9204</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>9301</v>
       </c>
@@ -6900,7 +6411,7 @@
         <v>9304</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>9401</v>
       </c>
@@ -6914,7 +6425,7 @@
         <v>9404</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>9501</v>
       </c>
@@ -6928,7 +6439,7 @@
         <v>9504</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>9601</v>
       </c>
@@ -6942,7 +6453,7 @@
         <v>9604</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>9701</v>
       </c>
@@ -6956,7 +6467,7 @@
         <v>9704</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>9801</v>
       </c>
@@ -6970,7 +6481,7 @@
         <v>9804</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>9901</v>
       </c>
@@ -6984,7 +6495,7 @@
         <v>9904</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>10001</v>
       </c>
@@ -6998,7 +6509,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>10101</v>
       </c>
@@ -7012,7 +6523,7 @@
         <v>10104</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>10201</v>
       </c>
@@ -7026,7 +6537,7 @@
         <v>10204</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>10301</v>
       </c>
@@ -7040,7 +6551,7 @@
         <v>10304</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>10401</v>
       </c>
@@ -7054,7 +6565,7 @@
         <v>10404</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>10501</v>
       </c>
@@ -7068,7 +6579,7 @@
         <v>10504</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>10601</v>
       </c>
@@ -7082,7 +6593,7 @@
         <v>10604</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>10701</v>
       </c>
@@ -7096,7 +6607,7 @@
         <v>10704</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>10801</v>
       </c>
@@ -7110,7 +6621,7 @@
         <v>10804</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>10901</v>
       </c>
@@ -7124,7 +6635,7 @@
         <v>10904</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>11001</v>
       </c>
@@ -7138,7 +6649,7 @@
         <v>11004</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>11101</v>
       </c>
@@ -7152,7 +6663,7 @@
         <v>11104</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>11201</v>
       </c>
@@ -7166,7 +6677,7 @@
         <v>11204</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>11301</v>
       </c>
@@ -7180,7 +6691,7 @@
         <v>11304</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>11401</v>
       </c>
@@ -7194,7 +6705,7 @@
         <v>11404</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>11501</v>
       </c>
@@ -7208,7 +6719,7 @@
         <v>11504</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>11801</v>
       </c>
@@ -7222,7 +6733,7 @@
         <v>11804</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>11901</v>
       </c>
@@ -7236,7 +6747,7 @@
         <v>11904</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>12001</v>
       </c>
@@ -7250,7 +6761,7 @@
         <v>12004</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>12101</v>
       </c>
@@ -7264,7 +6775,7 @@
         <v>12104</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>12201</v>
       </c>
@@ -7278,7 +6789,7 @@
         <v>12204</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>12301</v>
       </c>
@@ -7292,7 +6803,7 @@
         <v>12304</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>12401</v>
       </c>
@@ -7306,7 +6817,7 @@
         <v>12404</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>12501</v>
       </c>
@@ -7320,7 +6831,7 @@
         <v>12504</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>12601</v>
       </c>
@@ -7334,7 +6845,7 @@
         <v>12604</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>12701</v>
       </c>
@@ -7348,7 +6859,7 @@
         <v>12704</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>12801</v>
       </c>
@@ -7362,7 +6873,7 @@
         <v>12804</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>12901</v>
       </c>
@@ -7376,7 +6887,7 @@
         <v>12904</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4">
       <c r="A130">
         <v>13001</v>
       </c>
@@ -7390,7 +6901,7 @@
         <v>13004</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>13101</v>
       </c>
@@ -7405,23 +6916,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K115"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="33" customFormat="1" ht="16.5">
       <c r="A1" s="29" t="s">
         <v>103</v>
       </c>
@@ -7456,7 +6967,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="33" customFormat="1" ht="16.5">
       <c r="A2" s="29" t="s">
         <v>99</v>
       </c>
@@ -7491,7 +7002,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="33" customFormat="1" ht="16.5">
       <c r="A3" s="29">
         <v>99</v>
       </c>
@@ -7526,7 +7037,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A4" s="30">
         <v>101</v>
       </c>
@@ -7561,7 +7072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A5" s="30">
         <v>102</v>
       </c>
@@ -7596,7 +7107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A6" s="30">
         <v>103</v>
       </c>
@@ -7631,7 +7142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A7" s="30">
         <v>201</v>
       </c>
@@ -7666,7 +7177,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A8" s="30">
         <v>202</v>
       </c>
@@ -7701,7 +7212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A9" s="30">
         <v>203</v>
       </c>
@@ -7736,7 +7247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A10" s="30">
         <v>204</v>
       </c>
@@ -7771,7 +7282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A11" s="30">
         <v>301</v>
       </c>
@@ -7806,7 +7317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A12" s="36">
         <v>401</v>
       </c>
@@ -7841,7 +7352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A13" s="36">
         <v>402</v>
       </c>
@@ -7876,7 +7387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A14" s="36">
         <v>403</v>
       </c>
@@ -7911,7 +7422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A15" s="36">
         <v>404</v>
       </c>
@@ -7946,7 +7457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A16" s="36">
         <v>405</v>
       </c>
@@ -7981,7 +7492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A17" s="36">
         <v>406</v>
       </c>
@@ -8016,7 +7527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A18" s="36">
         <v>407</v>
       </c>
@@ -8051,7 +7562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A19" s="36">
         <v>408</v>
       </c>
@@ -8086,7 +7597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="38" customFormat="1" ht="16.5">
       <c r="A20" s="36">
         <v>409</v>
       </c>
@@ -8121,7 +7632,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A21" s="30">
         <v>410</v>
       </c>
@@ -8156,7 +7667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A22" s="30">
         <v>411</v>
       </c>
@@ -8191,7 +7702,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A23" s="30">
         <v>412</v>
       </c>
@@ -8226,7 +7737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A24" s="30">
         <v>413</v>
       </c>
@@ -8261,7 +7772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A25" s="30">
         <v>414</v>
       </c>
@@ -8296,7 +7807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A26" s="30">
         <v>415</v>
       </c>
@@ -8331,7 +7842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A27" s="30">
         <v>416</v>
       </c>
@@ -8366,7 +7877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A28" s="30">
         <v>417</v>
       </c>
@@ -8401,7 +7912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A29" s="30">
         <v>418</v>
       </c>
@@ -8436,7 +7947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A30" s="30">
         <v>419</v>
       </c>
@@ -8473,7 +7984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A31" s="30">
         <v>420</v>
       </c>
@@ -8510,7 +8021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A32" s="30">
         <v>421</v>
       </c>
@@ -8547,7 +8058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A33" s="30">
         <v>422</v>
       </c>
@@ -8584,7 +8095,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A34" s="30">
         <v>423</v>
       </c>
@@ -8621,7 +8132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A35" s="30">
         <v>424</v>
       </c>
@@ -8658,7 +8169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A36" s="30">
         <v>425</v>
       </c>
@@ -8695,7 +8206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A37" s="30">
         <v>426</v>
       </c>
@@ -8732,7 +8243,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A38" s="30">
         <v>427</v>
       </c>
@@ -8767,7 +8278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A39" s="30">
         <v>428</v>
       </c>
@@ -8802,7 +8313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A40" s="30">
         <v>429</v>
       </c>
@@ -8837,7 +8348,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A41" s="30">
         <v>430</v>
       </c>
@@ -8872,7 +8383,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A42" s="30">
         <v>431</v>
       </c>
@@ -8907,7 +8418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A43" s="30">
         <v>432</v>
       </c>
@@ -8942,7 +8453,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A44" s="30">
         <v>433</v>
       </c>
@@ -8977,7 +8488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A45" s="30">
         <v>434</v>
       </c>
@@ -9012,7 +8523,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A46" s="30">
         <v>435</v>
       </c>
@@ -9047,7 +8558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A47" s="30">
         <v>436</v>
       </c>
@@ -9082,7 +8593,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A48" s="30">
         <v>437</v>
       </c>
@@ -9117,7 +8628,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="42" customFormat="1" ht="16.5">
       <c r="A49" s="40">
         <v>438</v>
       </c>
@@ -9152,7 +8663,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A50" s="30">
         <v>439</v>
       </c>
@@ -9187,7 +8698,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A51" s="30">
         <v>440</v>
       </c>
@@ -9222,7 +8733,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A52" s="30">
         <v>441</v>
       </c>
@@ -9257,7 +8768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A53" s="30">
         <v>442</v>
       </c>
@@ -9292,7 +8803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="42" customFormat="1" ht="16.5">
       <c r="A54" s="40">
         <v>443</v>
       </c>
@@ -9327,7 +8838,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A55" s="30">
         <v>444</v>
       </c>
@@ -9362,7 +8873,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A56" s="30">
         <v>445</v>
       </c>
@@ -9397,7 +8908,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A57" s="30">
         <v>446</v>
       </c>
@@ -9432,7 +8943,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A58" s="30">
         <v>447</v>
       </c>
@@ -9467,7 +8978,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A59" s="30">
         <v>448</v>
       </c>
@@ -9502,7 +9013,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A60" s="30">
         <v>501</v>
       </c>
@@ -9537,7 +9048,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A61" s="30">
         <v>502</v>
       </c>
@@ -9572,7 +9083,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="22" customFormat="1" ht="16.5">
       <c r="A62" s="31">
         <v>509</v>
       </c>
@@ -9607,7 +9118,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A63" s="30">
         <v>601</v>
       </c>
@@ -9644,7 +9155,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A64" s="30">
         <v>602</v>
       </c>
@@ -9681,7 +9192,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A65" s="30">
         <v>603</v>
       </c>
@@ -9716,7 +9227,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A66" s="30">
         <v>701</v>
       </c>
@@ -9753,7 +9264,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A67" s="30">
         <v>702</v>
       </c>
@@ -9790,7 +9301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A68" s="30">
         <v>801</v>
       </c>
@@ -9825,7 +9336,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A69" s="30">
         <v>802</v>
       </c>
@@ -9860,7 +9371,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A70" s="30">
         <v>901</v>
       </c>
@@ -9897,7 +9408,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A71" s="30">
         <v>902</v>
       </c>
@@ -9932,7 +9443,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A72" s="30">
         <v>1001</v>
       </c>
@@ -9967,7 +9478,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A73" s="30">
         <v>1002</v>
       </c>
@@ -10002,7 +9513,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A74" s="30">
         <v>1004</v>
       </c>
@@ -10037,7 +9548,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A75" s="30">
         <v>1101</v>
       </c>
@@ -10072,7 +9583,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11" s="30" customFormat="1" ht="16.5">
       <c r="A76" s="30">
         <v>1102</v>
       </c>
@@ -10107,7 +9618,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A77" s="30">
         <v>1201</v>
       </c>
@@ -10142,7 +9653,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A78" s="30">
         <v>1301</v>
       </c>
@@ -10177,7 +9688,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A79" s="30">
         <v>1302</v>
       </c>
@@ -10212,7 +9723,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A80" s="30">
         <v>1307</v>
       </c>
@@ -10247,7 +9758,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A81" s="30">
         <v>1308</v>
       </c>
@@ -10282,7 +9793,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A82" s="30">
         <v>1309</v>
       </c>
@@ -10317,7 +9828,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A83" s="30">
         <v>1310</v>
       </c>
@@ -10352,7 +9863,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A84" s="30">
         <v>1311</v>
       </c>
@@ -10387,7 +9898,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A85" s="30">
         <v>1312</v>
       </c>
@@ -10422,7 +9933,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A86" s="30">
         <v>1313</v>
       </c>
@@ -10457,7 +9968,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" s="8" customFormat="1" ht="33">
       <c r="A87" s="30">
         <v>1314</v>
       </c>
@@ -10492,7 +10003,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A88" s="30">
         <v>1315</v>
       </c>
@@ -10527,7 +10038,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A89" s="30">
         <v>1316</v>
       </c>
@@ -10562,7 +10073,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A90" s="30">
         <v>1317</v>
       </c>
@@ -10597,7 +10108,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A91" s="30">
         <v>1318</v>
       </c>
@@ -10632,7 +10143,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A92" s="30">
         <v>1319</v>
       </c>
@@ -10667,7 +10178,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A93" s="30">
         <v>1320</v>
       </c>
@@ -10702,7 +10213,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A94" s="30">
         <v>1321</v>
       </c>
@@ -10737,7 +10248,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A95" s="30">
         <v>1322</v>
       </c>
@@ -10772,7 +10283,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A96" s="30">
         <v>1303</v>
       </c>
@@ -10807,7 +10318,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A97" s="30">
         <v>1304</v>
       </c>
@@ -10842,7 +10353,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" s="42" customFormat="1" ht="16.5">
       <c r="A98" s="40">
         <v>1305</v>
       </c>
@@ -10877,7 +10388,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" s="8" customFormat="1" ht="33">
       <c r="A99" s="30">
         <v>1306</v>
       </c>
@@ -10912,7 +10423,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A100" s="30">
         <v>1401</v>
       </c>
@@ -10947,7 +10458,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" s="42" customFormat="1" ht="16.5">
       <c r="A101" s="40">
         <v>1403</v>
       </c>
@@ -10984,7 +10495,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A102" s="30">
         <v>1601</v>
       </c>
@@ -11019,7 +10530,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A103" s="30">
         <v>1602</v>
       </c>
@@ -11054,7 +10565,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A104" s="30">
         <v>1603</v>
       </c>
@@ -11089,7 +10600,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A105" s="30">
         <v>1604</v>
       </c>
@@ -11124,7 +10635,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A106" s="30">
         <v>1605</v>
       </c>
@@ -11159,7 +10670,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A107" s="30">
         <v>1701</v>
       </c>
@@ -11194,7 +10705,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A108" s="30">
         <v>1801</v>
       </c>
@@ -11229,7 +10740,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A109" s="30">
         <v>1802</v>
       </c>
@@ -11264,7 +10775,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A110" s="30">
         <v>1803</v>
       </c>
@@ -11299,7 +10810,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A111" s="30">
         <v>1804</v>
       </c>
@@ -11334,7 +10845,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A112" s="30">
         <v>1805</v>
       </c>
@@ -11369,7 +10880,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A113" s="30">
         <v>1806</v>
       </c>
@@ -11404,7 +10915,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A114" s="30">
         <v>1807</v>
       </c>
@@ -11439,7 +10950,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" s="8" customFormat="1" ht="16.5">
       <c r="A115" s="30">
         <v>1808</v>
       </c>
@@ -11475,7 +10986,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>